--- a/Workspaces/Laura/sqlite/laura_metadata.xlsx
+++ b/Workspaces/Laura/sqlite/laura_metadata.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="2240" windowWidth="36160" windowHeight="18900" tabRatio="500" activeTab="1"/>
+    <workbookView minimized="1" xWindow="-360" yWindow="540" windowWidth="35320" windowHeight="17760" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ComputerInternet" sheetId="2" r:id="rId1"/>
     <sheet name="QuickFacts" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2327" uniqueCount="856">
   <si>
     <t>Code</t>
   </si>
@@ -1640,6 +1642,954 @@
   </si>
   <si>
     <t>AgePercentUnder18</t>
+  </si>
+  <si>
+    <t>Geographic Area Name</t>
+  </si>
+  <si>
+    <t>S2801_C01_001E</t>
+  </si>
+  <si>
+    <t>Estimate!!Total!!Total households</t>
+  </si>
+  <si>
+    <t>S2801_C01_001M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Total MOE!!Total households</t>
+  </si>
+  <si>
+    <t>S2801_C01_002E</t>
+  </si>
+  <si>
+    <t>Estimate!!Total!!TYPES OF COMPUTER!!Has one or more types of computing devices</t>
+  </si>
+  <si>
+    <t>S2801_C01_002M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Total MOE!!TYPES OF COMPUTER!!Has one or more types of computing devices</t>
+  </si>
+  <si>
+    <t>S2801_C01_003E</t>
+  </si>
+  <si>
+    <t>Estimate!!Total!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Desktop or laptop</t>
+  </si>
+  <si>
+    <t>S2801_C01_003M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Total MOE!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Desktop or laptop</t>
+  </si>
+  <si>
+    <t>S2801_C01_004E</t>
+  </si>
+  <si>
+    <t>Estimate!!Total!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Desktop or laptop!!Desktop or laptop with no other type of computing device</t>
+  </si>
+  <si>
+    <t>S2801_C01_004M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Total MOE!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Desktop or laptop!!Desktop or laptop with no other type of computing device</t>
+  </si>
+  <si>
+    <t>S2801_C01_005E</t>
+  </si>
+  <si>
+    <t>Estimate!!Total!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Smartphone</t>
+  </si>
+  <si>
+    <t>S2801_C01_005M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Total MOE!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Smartphone</t>
+  </si>
+  <si>
+    <t>S2801_C01_006E</t>
+  </si>
+  <si>
+    <t>Estimate!!Total!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Smartphone!!Smartphone with no other type of computing device</t>
+  </si>
+  <si>
+    <t>S2801_C01_006M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Total MOE!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Smartphone!!Smartphone with no other type of computing device</t>
+  </si>
+  <si>
+    <t>S2801_C01_007E</t>
+  </si>
+  <si>
+    <t>Estimate!!Total!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Tablet or other portable wireless computer</t>
+  </si>
+  <si>
+    <t>S2801_C01_007M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Total MOE!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Tablet or other portable wireless computer</t>
+  </si>
+  <si>
+    <t>S2801_C01_008E</t>
+  </si>
+  <si>
+    <t>Estimate!!Total!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Tablet or other portable wireless computer!!Tablet or other portable wireless computer with no other type of computing device</t>
+  </si>
+  <si>
+    <t>S2801_C01_008M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Total MOE!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Tablet or other portable wireless computer!!Tablet or other portable wireless computer with no other type of computing device</t>
+  </si>
+  <si>
+    <t>S2801_C01_009E</t>
+  </si>
+  <si>
+    <t>Estimate!!Total!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Other computer</t>
+  </si>
+  <si>
+    <t>S2801_C01_009M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Total MOE!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Other computer</t>
+  </si>
+  <si>
+    <t>S2801_C01_010E</t>
+  </si>
+  <si>
+    <t>Estimate!!Total!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Other computer!!Other computer with no other type of computing device</t>
+  </si>
+  <si>
+    <t>S2801_C01_010M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Total MOE!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Other computer!!Other computer with no other type of computing device</t>
+  </si>
+  <si>
+    <t>S2801_C01_011E</t>
+  </si>
+  <si>
+    <t>Estimate!!Total!!TYPES OF COMPUTER!!No computer</t>
+  </si>
+  <si>
+    <t>S2801_C01_011M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Total MOE!!TYPES OF COMPUTER!!No computer</t>
+  </si>
+  <si>
+    <t>S2801_C01_012E</t>
+  </si>
+  <si>
+    <t>Estimate!!Total!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription</t>
+  </si>
+  <si>
+    <t>S2801_C01_012M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Total MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription</t>
+  </si>
+  <si>
+    <t>S2801_C01_013E</t>
+  </si>
+  <si>
+    <t>Estimate!!Total!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Dial-up with no other type of Internet subscription</t>
+  </si>
+  <si>
+    <t>S2801_C01_013M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Total MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Dial-up with no other type of Internet subscription</t>
+  </si>
+  <si>
+    <t>S2801_C01_014E</t>
+  </si>
+  <si>
+    <t>Estimate!!Total!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type</t>
+  </si>
+  <si>
+    <t>S2801_C01_014M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Total MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type</t>
+  </si>
+  <si>
+    <t>S2801_C01_015E</t>
+  </si>
+  <si>
+    <t>Estimate!!Total!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type!!Cellular data plan</t>
+  </si>
+  <si>
+    <t>S2801_C01_015M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Total MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type!!Cellular data plan</t>
+  </si>
+  <si>
+    <t>S2801_C01_016E</t>
+  </si>
+  <si>
+    <t>Estimate!!Total!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type!!Cellular data plan!!Cellular data plan with no other type of Internet subscription</t>
+  </si>
+  <si>
+    <t>S2801_C01_016M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Total MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type!!Cellular data plan!!Cellular data plan with no other type of Internet subscription</t>
+  </si>
+  <si>
+    <t>S2801_C01_017E</t>
+  </si>
+  <si>
+    <t>Estimate!!Total!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type!!Broadband such as cable, fiber optic or DSL</t>
+  </si>
+  <si>
+    <t>S2801_C01_017M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Total MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type!!Broadband such as cable, fiber optic or DSL</t>
+  </si>
+  <si>
+    <t>S2801_C01_018E</t>
+  </si>
+  <si>
+    <t>Estimate!!Total!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type!!Satellite Internet service</t>
+  </si>
+  <si>
+    <t>S2801_C01_018M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Total MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type!!Satellite Internet service</t>
+  </si>
+  <si>
+    <t>S2801_C01_019E</t>
+  </si>
+  <si>
+    <t>Estimate!!Total!!TYPE OF INTERNET SUBSCRIPTIONS!!Without an Internet subscription</t>
+  </si>
+  <si>
+    <t>S2801_C01_019M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Total MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!Without an Internet subscription</t>
+  </si>
+  <si>
+    <t>S2801_C01_020E</t>
+  </si>
+  <si>
+    <t>Estimate!!Total!!TYPE OF INTERNET SUBSCRIPTIONS!!Less than $20,000</t>
+  </si>
+  <si>
+    <t>S2801_C01_020M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Total MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!Less than $20,000</t>
+  </si>
+  <si>
+    <t>S2801_C01_021E</t>
+  </si>
+  <si>
+    <t>Estimate!!Total!!TYPE OF INTERNET SUBSCRIPTIONS!!Less than $20,000!!With dial-up Internet subscription alone</t>
+  </si>
+  <si>
+    <t>S2801_C01_021M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Total MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!Less than $20,000!!With dial-up Internet subscription alone</t>
+  </si>
+  <si>
+    <t>S2801_C01_022E</t>
+  </si>
+  <si>
+    <t>Estimate!!Total!!TYPE OF INTERNET SUBSCRIPTIONS!!Less than $20,000!!With a broadband Internet subscription</t>
+  </si>
+  <si>
+    <t>S2801_C01_022M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Total MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!Less than $20,000!!With a broadband Internet subscription</t>
+  </si>
+  <si>
+    <t>S2801_C01_023E</t>
+  </si>
+  <si>
+    <t>Estimate!!Total!!TYPE OF INTERNET SUBSCRIPTIONS!!Less than $20,000!!Without an Internet subscription</t>
+  </si>
+  <si>
+    <t>S2801_C01_023M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Total MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!Less than $20,000!!Without an Internet subscription</t>
+  </si>
+  <si>
+    <t>S2801_C01_024E</t>
+  </si>
+  <si>
+    <t>Estimate!!Total!!TYPE OF INTERNET SUBSCRIPTIONS!!$20,000 to $74,999</t>
+  </si>
+  <si>
+    <t>S2801_C01_024M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Total MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!$20,000 to $74,999</t>
+  </si>
+  <si>
+    <t>S2801_C01_025E</t>
+  </si>
+  <si>
+    <t>Estimate!!Total!!TYPE OF INTERNET SUBSCRIPTIONS!!$20,000 to $74,999!!With dial-up Internet subscription alone</t>
+  </si>
+  <si>
+    <t>S2801_C01_025M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Total MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!$20,000 to $74,999!!With dial-up Internet subscription alone</t>
+  </si>
+  <si>
+    <t>S2801_C01_026E</t>
+  </si>
+  <si>
+    <t>Estimate!!Total!!TYPE OF INTERNET SUBSCRIPTIONS!!$20,000 to $74,999!!With a broadband Internet subscription</t>
+  </si>
+  <si>
+    <t>S2801_C01_026M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Total MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!$20,000 to $74,999!!With a broadband Internet subscription</t>
+  </si>
+  <si>
+    <t>S2801_C01_027E</t>
+  </si>
+  <si>
+    <t>Estimate!!Total!!TYPE OF INTERNET SUBSCRIPTIONS!!$20,000 to $74,999!!Without an Internet subscription</t>
+  </si>
+  <si>
+    <t>S2801_C01_027M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Total MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!$20,000 to $74,999!!Without an Internet subscription</t>
+  </si>
+  <si>
+    <t>S2801_C01_028E</t>
+  </si>
+  <si>
+    <t>Estimate!!Total!!TYPE OF INTERNET SUBSCRIPTIONS!!$75,000 or more</t>
+  </si>
+  <si>
+    <t>S2801_C01_028M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Total MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!$75,000 or more</t>
+  </si>
+  <si>
+    <t>S2801_C01_029E</t>
+  </si>
+  <si>
+    <t>Estimate!!Total!!TYPE OF INTERNET SUBSCRIPTIONS!!$75,000 or more!!With dial-up Internet subscription alone</t>
+  </si>
+  <si>
+    <t>S2801_C01_029M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Total MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!$75,000 or more!!With dial-up Internet subscription alone</t>
+  </si>
+  <si>
+    <t>S2801_C01_030E</t>
+  </si>
+  <si>
+    <t>Estimate!!Total!!TYPE OF INTERNET SUBSCRIPTIONS!!$75,000 or more!!With a broadband Internet subscription</t>
+  </si>
+  <si>
+    <t>S2801_C01_030M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Total MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!$75,000 or more!!With a broadband Internet subscription</t>
+  </si>
+  <si>
+    <t>S2801_C01_031E</t>
+  </si>
+  <si>
+    <t>Estimate!!Total!!TYPE OF INTERNET SUBSCRIPTIONS!!$75,000 or more!!Without an Internet subscription</t>
+  </si>
+  <si>
+    <t>S2801_C01_031M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Total MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!$75,000 or more!!Without an Internet subscription</t>
+  </si>
+  <si>
+    <t>S2801_C02_001E</t>
+  </si>
+  <si>
+    <t>Estimate!!Percent!!Total households</t>
+  </si>
+  <si>
+    <t>S2801_C02_001M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Percent MOE!!Total households</t>
+  </si>
+  <si>
+    <t>S2801_C02_002E</t>
+  </si>
+  <si>
+    <t>Estimate!!Percent!!TYPES OF COMPUTER!!Has one or more types of computing devices</t>
+  </si>
+  <si>
+    <t>S2801_C02_002M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Percent MOE!!TYPES OF COMPUTER!!Has one or more types of computing devices</t>
+  </si>
+  <si>
+    <t>S2801_C02_003E</t>
+  </si>
+  <si>
+    <t>Estimate!!Percent!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Desktop or laptop</t>
+  </si>
+  <si>
+    <t>S2801_C02_003M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Percent MOE!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Desktop or laptop</t>
+  </si>
+  <si>
+    <t>S2801_C02_004E</t>
+  </si>
+  <si>
+    <t>Estimate!!Percent!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Desktop or laptop!!Desktop or laptop with no other type of computing device</t>
+  </si>
+  <si>
+    <t>S2801_C02_004M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Percent MOE!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Desktop or laptop!!Desktop or laptop with no other type of computing device</t>
+  </si>
+  <si>
+    <t>S2801_C02_005E</t>
+  </si>
+  <si>
+    <t>Estimate!!Percent!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Smartphone</t>
+  </si>
+  <si>
+    <t>S2801_C02_005M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Percent MOE!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Smartphone</t>
+  </si>
+  <si>
+    <t>S2801_C02_006E</t>
+  </si>
+  <si>
+    <t>Estimate!!Percent!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Smartphone!!Smartphone with no other type of computing device</t>
+  </si>
+  <si>
+    <t>S2801_C02_006M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Percent MOE!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Smartphone!!Smartphone with no other type of computing device</t>
+  </si>
+  <si>
+    <t>S2801_C02_007E</t>
+  </si>
+  <si>
+    <t>Estimate!!Percent!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Tablet or other portable wireless computer</t>
+  </si>
+  <si>
+    <t>S2801_C02_007M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Percent MOE!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Tablet or other portable wireless computer</t>
+  </si>
+  <si>
+    <t>S2801_C02_008E</t>
+  </si>
+  <si>
+    <t>Estimate!!Percent!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Tablet or other portable wireless computer!!Tablet or other portable wireless computer with no other type of computing device</t>
+  </si>
+  <si>
+    <t>S2801_C02_008M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Percent MOE!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Tablet or other portable wireless computer!!Tablet or other portable wireless computer with no other type of computing device</t>
+  </si>
+  <si>
+    <t>S2801_C02_009E</t>
+  </si>
+  <si>
+    <t>Estimate!!Percent!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Other computer</t>
+  </si>
+  <si>
+    <t>S2801_C02_009M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Percent MOE!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Other computer</t>
+  </si>
+  <si>
+    <t>S2801_C02_010E</t>
+  </si>
+  <si>
+    <t>Estimate!!Percent!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Other computer!!Other computer with no other type of computing device</t>
+  </si>
+  <si>
+    <t>S2801_C02_010M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Percent MOE!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Other computer!!Other computer with no other type of computing device</t>
+  </si>
+  <si>
+    <t>S2801_C02_011E</t>
+  </si>
+  <si>
+    <t>Estimate!!Percent!!TYPES OF COMPUTER!!No computer</t>
+  </si>
+  <si>
+    <t>S2801_C02_011M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Percent MOE!!TYPES OF COMPUTER!!No computer</t>
+  </si>
+  <si>
+    <t>S2801_C02_012E</t>
+  </si>
+  <si>
+    <t>Estimate!!Percent!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription</t>
+  </si>
+  <si>
+    <t>S2801_C02_012M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Percent MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription</t>
+  </si>
+  <si>
+    <t>S2801_C02_013E</t>
+  </si>
+  <si>
+    <t>Estimate!!Percent!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Dial-up with no other type of Internet subscription</t>
+  </si>
+  <si>
+    <t>S2801_C02_013M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Percent MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Dial-up with no other type of Internet subscription</t>
+  </si>
+  <si>
+    <t>S2801_C02_014E</t>
+  </si>
+  <si>
+    <t>Estimate!!Percent!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type</t>
+  </si>
+  <si>
+    <t>S2801_C02_014M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Percent MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type</t>
+  </si>
+  <si>
+    <t>S2801_C02_015E</t>
+  </si>
+  <si>
+    <t>Estimate!!Percent!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type!!Cellular data plan</t>
+  </si>
+  <si>
+    <t>S2801_C02_015M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Percent MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type!!Cellular data plan</t>
+  </si>
+  <si>
+    <t>S2801_C02_016E</t>
+  </si>
+  <si>
+    <t>Estimate!!Percent!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type!!Cellular data plan!!Cellular data plan with no other type of Internet subscription</t>
+  </si>
+  <si>
+    <t>S2801_C02_016M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Percent MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type!!Cellular data plan!!Cellular data plan with no other type of Internet subscription</t>
+  </si>
+  <si>
+    <t>S2801_C02_017E</t>
+  </si>
+  <si>
+    <t>Estimate!!Percent!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type!!Broadband such as cable, fiber optic or DSL</t>
+  </si>
+  <si>
+    <t>S2801_C02_017M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Percent MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type!!Broadband such as cable, fiber optic or DSL</t>
+  </si>
+  <si>
+    <t>S2801_C02_018E</t>
+  </si>
+  <si>
+    <t>Estimate!!Percent!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type!!Satellite Internet service</t>
+  </si>
+  <si>
+    <t>S2801_C02_018M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Percent MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type!!Satellite Internet service</t>
+  </si>
+  <si>
+    <t>S2801_C02_019E</t>
+  </si>
+  <si>
+    <t>Estimate!!Percent!!TYPE OF INTERNET SUBSCRIPTIONS!!Without an Internet subscription</t>
+  </si>
+  <si>
+    <t>S2801_C02_019M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Percent MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!Without an Internet subscription</t>
+  </si>
+  <si>
+    <t>S2801_C02_020E</t>
+  </si>
+  <si>
+    <t>Estimate!!Percent!!TYPE OF INTERNET SUBSCRIPTIONS!!Less than $20,000</t>
+  </si>
+  <si>
+    <t>S2801_C02_020M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Percent MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!Less than $20,000</t>
+  </si>
+  <si>
+    <t>S2801_C02_021E</t>
+  </si>
+  <si>
+    <t>Estimate!!Percent!!TYPE OF INTERNET SUBSCRIPTIONS!!Less than $20,000!!With dial-up Internet subscription alone</t>
+  </si>
+  <si>
+    <t>S2801_C02_021M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Percent MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!Less than $20,000!!With dial-up Internet subscription alone</t>
+  </si>
+  <si>
+    <t>S2801_C02_022E</t>
+  </si>
+  <si>
+    <t>Estimate!!Percent!!TYPE OF INTERNET SUBSCRIPTIONS!!Less than $20,000!!With a broadband Internet subscription</t>
+  </si>
+  <si>
+    <t>S2801_C02_022M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Percent MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!Less than $20,000!!With a broadband Internet subscription</t>
+  </si>
+  <si>
+    <t>S2801_C02_023E</t>
+  </si>
+  <si>
+    <t>Estimate!!Percent!!TYPE OF INTERNET SUBSCRIPTIONS!!Less than $20,000!!Without an Internet subscription</t>
+  </si>
+  <si>
+    <t>S2801_C02_023M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Percent MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!Less than $20,000!!Without an Internet subscription</t>
+  </si>
+  <si>
+    <t>S2801_C02_024E</t>
+  </si>
+  <si>
+    <t>Estimate!!Percent!!TYPE OF INTERNET SUBSCRIPTIONS!!$20,000 to $74,999</t>
+  </si>
+  <si>
+    <t>S2801_C02_024M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Percent MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!$20,000 to $74,999</t>
+  </si>
+  <si>
+    <t>S2801_C02_025E</t>
+  </si>
+  <si>
+    <t>Estimate!!Percent!!TYPE OF INTERNET SUBSCRIPTIONS!!$20,000 to $74,999!!With dial-up Internet subscription alone</t>
+  </si>
+  <si>
+    <t>S2801_C02_025M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Percent MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!$20,000 to $74,999!!With dial-up Internet subscription alone</t>
+  </si>
+  <si>
+    <t>S2801_C02_026E</t>
+  </si>
+  <si>
+    <t>Estimate!!Percent!!TYPE OF INTERNET SUBSCRIPTIONS!!$20,000 to $74,999!!With a broadband Internet subscription</t>
+  </si>
+  <si>
+    <t>S2801_C02_026M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Percent MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!$20,000 to $74,999!!With a broadband Internet subscription</t>
+  </si>
+  <si>
+    <t>S2801_C02_027E</t>
+  </si>
+  <si>
+    <t>Estimate!!Percent!!TYPE OF INTERNET SUBSCRIPTIONS!!$20,000 to $74,999!!Without an Internet subscription</t>
+  </si>
+  <si>
+    <t>S2801_C02_027M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Percent MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!$20,000 to $74,999!!Without an Internet subscription</t>
+  </si>
+  <si>
+    <t>S2801_C02_028E</t>
+  </si>
+  <si>
+    <t>Estimate!!Percent!!TYPE OF INTERNET SUBSCRIPTIONS!!$75,000 or more</t>
+  </si>
+  <si>
+    <t>S2801_C02_028M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Percent MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!$75,000 or more</t>
+  </si>
+  <si>
+    <t>S2801_C02_029E</t>
+  </si>
+  <si>
+    <t>Estimate!!Percent!!TYPE OF INTERNET SUBSCRIPTIONS!!$75,000 or more!!With dial-up Internet subscription alone</t>
+  </si>
+  <si>
+    <t>S2801_C02_029M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Percent MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!$75,000 or more!!With dial-up Internet subscription alone</t>
+  </si>
+  <si>
+    <t>S2801_C02_030E</t>
+  </si>
+  <si>
+    <t>Estimate!!Percent!!TYPE OF INTERNET SUBSCRIPTIONS!!$75,000 or more!!With a broadband Internet subscription</t>
+  </si>
+  <si>
+    <t>S2801_C02_030M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Percent MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!$75,000 or more!!With a broadband Internet subscription</t>
+  </si>
+  <si>
+    <t>S2801_C02_031E</t>
+  </si>
+  <si>
+    <t>Estimate!!Percent!!TYPE OF INTERNET SUBSCRIPTIONS!!$75,000 or more!!Without an Internet subscription</t>
+  </si>
+  <si>
+    <t>S2801_C02_031M</t>
+  </si>
+  <si>
+    <t>Margin of Error!!Percent MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!$75,000 or more!!Without an Internet subscription</t>
+  </si>
+  <si>
+    <t>Margin of Error</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Total MOE</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>Percent MOE</t>
+  </si>
+  <si>
+    <t>TYPES OF COMPUTER!!Has one or more types of computing devices</t>
+  </si>
+  <si>
+    <t>TYPES OF COMPUTER!!Has one or more types of computing devices!!Desktop or laptop</t>
+  </si>
+  <si>
+    <t>TYPES OF COMPUTER!!Has one or more types of computing devices!!Desktop or laptop!!Desktop or laptop with no other type of computing device</t>
+  </si>
+  <si>
+    <t>TYPES OF COMPUTER!!Has one or more types of computing devices!!Smartphone</t>
+  </si>
+  <si>
+    <t>TYPES OF COMPUTER!!Has one or more types of computing devices!!Smartphone!!Smartphone with no other type of computing device</t>
+  </si>
+  <si>
+    <t>TYPES OF COMPUTER!!Has one or more types of computing devices!!Tablet or other portable wireless computer</t>
+  </si>
+  <si>
+    <t>TYPES OF COMPUTER!!Has one or more types of computing devices!!Tablet or other portable wireless computer!!Tablet or other portable wireless computer with no other type of computing device</t>
+  </si>
+  <si>
+    <t>TYPES OF COMPUTER!!Has one or more types of computing devices!!Other computer</t>
+  </si>
+  <si>
+    <t>TYPES OF COMPUTER!!Has one or more types of computing devices!!Other computer!!Other computer with no other type of computing device</t>
+  </si>
+  <si>
+    <t>TYPES OF COMPUTER!!No computer</t>
+  </si>
+  <si>
+    <t>TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription</t>
+  </si>
+  <si>
+    <t>TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Dial-up with no other type of Internet subscription</t>
+  </si>
+  <si>
+    <t>TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type</t>
+  </si>
+  <si>
+    <t>TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type!!Cellular data plan</t>
+  </si>
+  <si>
+    <t>TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type!!Cellular data plan!!Cellular data plan with no other type of Internet subscription</t>
+  </si>
+  <si>
+    <t>TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type!!Broadband such as cable, fiber optic or DSL</t>
+  </si>
+  <si>
+    <t>TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type!!Satellite Internet service</t>
+  </si>
+  <si>
+    <t>TYPE OF INTERNET SUBSCRIPTIONS!!Without an Internet subscription</t>
+  </si>
+  <si>
+    <t>TYPE OF INTERNET SUBSCRIPTIONS!!Less than $20,000</t>
+  </si>
+  <si>
+    <t>TYPE OF INTERNET SUBSCRIPTIONS!!Less than $20,000!!With dial-up Internet subscription alone</t>
+  </si>
+  <si>
+    <t>TYPE OF INTERNET SUBSCRIPTIONS!!Less than $20,000!!With a broadband Internet subscription</t>
+  </si>
+  <si>
+    <t>TYPE OF INTERNET SUBSCRIPTIONS!!Less than $20,000!!Without an Internet subscription</t>
+  </si>
+  <si>
+    <t>TYPE OF INTERNET SUBSCRIPTIONS!!$20,000 to $74,999</t>
+  </si>
+  <si>
+    <t>TYPE OF INTERNET SUBSCRIPTIONS!!$20,000 to $74,999!!With dial-up Internet subscription alone</t>
+  </si>
+  <si>
+    <t>TYPE OF INTERNET SUBSCRIPTIONS!!$20,000 to $74,999!!With a broadband Internet subscription</t>
+  </si>
+  <si>
+    <t>TYPE OF INTERNET SUBSCRIPTIONS!!$20,000 to $74,999!!Without an Internet subscription</t>
+  </si>
+  <si>
+    <t>TYPE OF INTERNET SUBSCRIPTIONS!!$75,000 or more</t>
+  </si>
+  <si>
+    <t>TYPE OF INTERNET SUBSCRIPTIONS!!$75,000 or more!!With dial-up Internet subscription alone</t>
+  </si>
+  <si>
+    <t>TYPE OF INTERNET SUBSCRIPTIONS!!$75,000 or more!!With a broadband Internet subscription</t>
+  </si>
+  <si>
+    <t>TYPE OF INTERNET SUBSCRIPTIONS!!$75,000 or more!!Without an Internet subscription</t>
+  </si>
+  <si>
+    <t>TYPES OF COMPUTER</t>
+  </si>
+  <si>
+    <t>TYPE OF INTERNET SUBSCRIPTIONS</t>
+  </si>
+  <si>
+    <t>Has one or more types of computing devices</t>
+  </si>
+  <si>
+    <t>Has one or more types of computing devices!!Desktop or laptop</t>
+  </si>
+  <si>
+    <t>Has one or more types of computing devices!!Desktop or laptop!!Desktop or laptop with no other type of computing device</t>
+  </si>
+  <si>
+    <t>Has one or more types of computing devices!!Smartphone</t>
+  </si>
+  <si>
+    <t>Has one or more types of computing devices!!Smartphone!!Smartphone with no other type of computing device</t>
+  </si>
+  <si>
+    <t>Has one or more types of computing devices!!Tablet or other portable wireless computer</t>
+  </si>
+  <si>
+    <t>Has one or more types of computing devices!!Tablet or other portable wireless computer!!Tablet or other portable wireless computer with no other type of computing device</t>
+  </si>
+  <si>
+    <t>Has one or more types of computing devices!!Other computer</t>
+  </si>
+  <si>
+    <t>Has one or more types of computing devices!!Other computer!!Other computer with no other type of computing device</t>
+  </si>
+  <si>
+    <t>No computer</t>
+  </si>
+  <si>
+    <t>With an Internet subscription</t>
+  </si>
+  <si>
+    <t>With an Internet subscription!!Dial-up with no other type of Internet subscription</t>
+  </si>
+  <si>
+    <t>With an Internet subscription!!Broadband of any type</t>
+  </si>
+  <si>
+    <t>With an Internet subscription!!Broadband of any type!!Cellular data plan</t>
+  </si>
+  <si>
+    <t>With an Internet subscription!!Broadband of any type!!Cellular data plan!!Cellular data plan with no other type of Internet subscription</t>
+  </si>
+  <si>
+    <t>With an Internet subscription!!Broadband of any type!!Broadband such as cable, fiber optic or DSL</t>
+  </si>
+  <si>
+    <t>With an Internet subscription!!Broadband of any type!!Satellite Internet service</t>
+  </si>
+  <si>
+    <t>Without an Internet subscription</t>
+  </si>
+  <si>
+    <t>Less than $20,000</t>
+  </si>
+  <si>
+    <t>Less than $20,000!!With dial-up Internet subscription alone</t>
+  </si>
+  <si>
+    <t>Less than $20,000!!With a broadband Internet subscription</t>
+  </si>
+  <si>
+    <t>Less than $20,000!!Without an Internet subscription</t>
+  </si>
+  <si>
+    <t>$20,000 to $74,999</t>
+  </si>
+  <si>
+    <t>$20,000 to $74,999!!With dial-up Internet subscription alone</t>
+  </si>
+  <si>
+    <t>$20,000 to $74,999!!With a broadband Internet subscription</t>
+  </si>
+  <si>
+    <t>$20,000 to $74,999!!Without an Internet subscription</t>
+  </si>
+  <si>
+    <t>$75,000 or more</t>
+  </si>
+  <si>
+    <t>$75,000 or more!!With dial-up Internet subscription alone</t>
+  </si>
+  <si>
+    <t>$75,000 or more!!With a broadband Internet subscription</t>
+  </si>
+  <si>
+    <t>$75,000 or more!!Without an Internet subscription</t>
   </si>
 </sst>
 </file>
@@ -1688,17 +2638,85 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="37">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2031,7 +3049,7 @@
   <dimension ref="A1:E149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A41" sqref="A34:XFD41"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4252,7 +5270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -9089,11 +10107,11 @@
         <v>259</v>
       </c>
       <c r="B162" t="str">
-        <f t="shared" ref="B162:B193" si="16">LEFT(A162,4)</f>
+        <f t="shared" ref="B162:B177" si="16">LEFT(A162,4)</f>
         <v>DP02</v>
       </c>
       <c r="C162" t="str">
-        <f t="shared" ref="C162:C193" si="17">SUBSTITUTE(A162,B162&amp;"_","")</f>
+        <f t="shared" ref="C162:C177" si="17">SUBSTITUTE(A162,B162&amp;"_","")</f>
         <v>0145E</v>
       </c>
       <c r="D162" t="str">
@@ -9562,6 +10580,8009 @@
       </c>
       <c r="H177" t="s">
         <v>281</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K125"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" customWidth="1"/>
+    <col min="9" max="9" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="142.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C2" t="str">
+        <f>LEFT(B2,SEARCH("!!",B2,1)+1)</f>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D2" t="str">
+        <f>LEFT(B2,SEARCH("!!",B2,1)-1)</f>
+        <v>Estimate</v>
+      </c>
+      <c r="E2" t="str">
+        <f>SUBSTITUTE(B2,C2,"")</f>
+        <v>Total!!Total households</v>
+      </c>
+      <c r="F2" t="str">
+        <f>LEFT(E2,SEARCH("!!",E2,1)+1)</f>
+        <v>Total!!</v>
+      </c>
+      <c r="G2" t="str">
+        <f>LEFT(E2,SEARCH("!!",E2,1)-1)</f>
+        <v>Total</v>
+      </c>
+      <c r="H2" t="str">
+        <f>SUBSTITUTE(E2,F2,"")</f>
+        <v>Total households</v>
+      </c>
+      <c r="I2" t="e">
+        <f>LEFT(H2,SEARCH("!!",H2,1)+1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J2" t="e">
+        <f>LEFT(H2,SEARCH("!!",H2,1)-1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K2" t="e">
+        <f>SUBSTITUTE(H2,I2,"")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>543</v>
+      </c>
+      <c r="B3" t="s">
+        <v>544</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C66" si="0">LEFT(B3,SEARCH("!!",B3,1)+1)</f>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D66" si="1">LEFT(B3,SEARCH("!!",B3,1)-1)</f>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E66" si="2">SUBSTITUTE(B3,C3,"")</f>
+        <v>Total MOE!!Total households</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F66" si="3">LEFT(E3,SEARCH("!!",E3,1)+1)</f>
+        <v>Total MOE!!</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G66" si="4">LEFT(E3,SEARCH("!!",E3,1)-1)</f>
+        <v>Total MOE</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H66" si="5">SUBSTITUTE(E3,F3,"")</f>
+        <v>Total households</v>
+      </c>
+      <c r="I3" t="e">
+        <f t="shared" ref="I3:I66" si="6">LEFT(H3,SEARCH("!!",H3,1)+1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J3" t="e">
+        <f t="shared" ref="J3:J66" si="7">LEFT(H3,SEARCH("!!",H3,1)-1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K3" t="e">
+        <f t="shared" ref="K3:K66" si="8">SUBSTITUTE(H3,I3,"")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>545</v>
+      </c>
+      <c r="B4" t="s">
+        <v>546</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="2"/>
+        <v>Total!!TYPES OF COMPUTER!!Has one or more types of computing devices</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="3"/>
+        <v>Total!!</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="4"/>
+        <v>Total</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPES OF COMPUTER!!Has one or more types of computing devices</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPES OF COMPUTER!!</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPES OF COMPUTER</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="8"/>
+        <v>Has one or more types of computing devices</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>547</v>
+      </c>
+      <c r="B5" t="s">
+        <v>548</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="2"/>
+        <v>Total MOE!!TYPES OF COMPUTER!!Has one or more types of computing devices</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="3"/>
+        <v>Total MOE!!</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="4"/>
+        <v>Total MOE</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPES OF COMPUTER!!Has one or more types of computing devices</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPES OF COMPUTER!!</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPES OF COMPUTER</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="8"/>
+        <v>Has one or more types of computing devices</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>549</v>
+      </c>
+      <c r="B6" t="s">
+        <v>550</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="2"/>
+        <v>Total!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Desktop or laptop</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="3"/>
+        <v>Total!!</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="4"/>
+        <v>Total</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPES OF COMPUTER!!Has one or more types of computing devices!!Desktop or laptop</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPES OF COMPUTER!!</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPES OF COMPUTER</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="8"/>
+        <v>Has one or more types of computing devices!!Desktop or laptop</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>551</v>
+      </c>
+      <c r="B7" t="s">
+        <v>552</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="2"/>
+        <v>Total MOE!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Desktop or laptop</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="3"/>
+        <v>Total MOE!!</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="4"/>
+        <v>Total MOE</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPES OF COMPUTER!!Has one or more types of computing devices!!Desktop or laptop</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPES OF COMPUTER!!</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPES OF COMPUTER</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="8"/>
+        <v>Has one or more types of computing devices!!Desktop or laptop</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>553</v>
+      </c>
+      <c r="B8" t="s">
+        <v>554</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="2"/>
+        <v>Total!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Desktop or laptop!!Desktop or laptop with no other type of computing device</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="3"/>
+        <v>Total!!</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="4"/>
+        <v>Total</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPES OF COMPUTER!!Has one or more types of computing devices!!Desktop or laptop!!Desktop or laptop with no other type of computing device</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPES OF COMPUTER!!</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPES OF COMPUTER</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="8"/>
+        <v>Has one or more types of computing devices!!Desktop or laptop!!Desktop or laptop with no other type of computing device</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>555</v>
+      </c>
+      <c r="B9" t="s">
+        <v>556</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="2"/>
+        <v>Total MOE!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Desktop or laptop!!Desktop or laptop with no other type of computing device</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="3"/>
+        <v>Total MOE!!</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="4"/>
+        <v>Total MOE</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPES OF COMPUTER!!Has one or more types of computing devices!!Desktop or laptop!!Desktop or laptop with no other type of computing device</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPES OF COMPUTER!!</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPES OF COMPUTER</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="8"/>
+        <v>Has one or more types of computing devices!!Desktop or laptop!!Desktop or laptop with no other type of computing device</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>557</v>
+      </c>
+      <c r="B10" t="s">
+        <v>558</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="2"/>
+        <v>Total!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Smartphone</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="3"/>
+        <v>Total!!</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="4"/>
+        <v>Total</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPES OF COMPUTER!!Has one or more types of computing devices!!Smartphone</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPES OF COMPUTER!!</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPES OF COMPUTER</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="8"/>
+        <v>Has one or more types of computing devices!!Smartphone</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>559</v>
+      </c>
+      <c r="B11" t="s">
+        <v>560</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="2"/>
+        <v>Total MOE!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Smartphone</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="3"/>
+        <v>Total MOE!!</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="4"/>
+        <v>Total MOE</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPES OF COMPUTER!!Has one or more types of computing devices!!Smartphone</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPES OF COMPUTER!!</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPES OF COMPUTER</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="8"/>
+        <v>Has one or more types of computing devices!!Smartphone</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>561</v>
+      </c>
+      <c r="B12" t="s">
+        <v>562</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="2"/>
+        <v>Total!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Smartphone!!Smartphone with no other type of computing device</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="3"/>
+        <v>Total!!</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="4"/>
+        <v>Total</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPES OF COMPUTER!!Has one or more types of computing devices!!Smartphone!!Smartphone with no other type of computing device</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPES OF COMPUTER!!</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPES OF COMPUTER</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="8"/>
+        <v>Has one or more types of computing devices!!Smartphone!!Smartphone with no other type of computing device</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>563</v>
+      </c>
+      <c r="B13" t="s">
+        <v>564</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="2"/>
+        <v>Total MOE!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Smartphone!!Smartphone with no other type of computing device</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="3"/>
+        <v>Total MOE!!</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="4"/>
+        <v>Total MOE</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPES OF COMPUTER!!Has one or more types of computing devices!!Smartphone!!Smartphone with no other type of computing device</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPES OF COMPUTER!!</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPES OF COMPUTER</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="8"/>
+        <v>Has one or more types of computing devices!!Smartphone!!Smartphone with no other type of computing device</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>565</v>
+      </c>
+      <c r="B14" t="s">
+        <v>566</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="2"/>
+        <v>Total!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Tablet or other portable wireless computer</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="3"/>
+        <v>Total!!</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="4"/>
+        <v>Total</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPES OF COMPUTER!!Has one or more types of computing devices!!Tablet or other portable wireless computer</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPES OF COMPUTER!!</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPES OF COMPUTER</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="8"/>
+        <v>Has one or more types of computing devices!!Tablet or other portable wireless computer</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>567</v>
+      </c>
+      <c r="B15" t="s">
+        <v>568</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="2"/>
+        <v>Total MOE!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Tablet or other portable wireless computer</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="3"/>
+        <v>Total MOE!!</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="4"/>
+        <v>Total MOE</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPES OF COMPUTER!!Has one or more types of computing devices!!Tablet or other portable wireless computer</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPES OF COMPUTER!!</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPES OF COMPUTER</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="8"/>
+        <v>Has one or more types of computing devices!!Tablet or other portable wireless computer</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>569</v>
+      </c>
+      <c r="B16" t="s">
+        <v>570</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="2"/>
+        <v>Total!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Tablet or other portable wireless computer!!Tablet or other portable wireless computer with no other type of computing device</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="3"/>
+        <v>Total!!</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="4"/>
+        <v>Total</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPES OF COMPUTER!!Has one or more types of computing devices!!Tablet or other portable wireless computer!!Tablet or other portable wireless computer with no other type of computing device</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPES OF COMPUTER!!</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPES OF COMPUTER</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="8"/>
+        <v>Has one or more types of computing devices!!Tablet or other portable wireless computer!!Tablet or other portable wireless computer with no other type of computing device</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>571</v>
+      </c>
+      <c r="B17" t="s">
+        <v>572</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="2"/>
+        <v>Total MOE!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Tablet or other portable wireless computer!!Tablet or other portable wireless computer with no other type of computing device</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="3"/>
+        <v>Total MOE!!</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="4"/>
+        <v>Total MOE</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPES OF COMPUTER!!Has one or more types of computing devices!!Tablet or other portable wireless computer!!Tablet or other portable wireless computer with no other type of computing device</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPES OF COMPUTER!!</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPES OF COMPUTER</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="8"/>
+        <v>Has one or more types of computing devices!!Tablet or other portable wireless computer!!Tablet or other portable wireless computer with no other type of computing device</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>573</v>
+      </c>
+      <c r="B18" t="s">
+        <v>574</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="2"/>
+        <v>Total!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Other computer</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="3"/>
+        <v>Total!!</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="4"/>
+        <v>Total</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPES OF COMPUTER!!Has one or more types of computing devices!!Other computer</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPES OF COMPUTER!!</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPES OF COMPUTER</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="8"/>
+        <v>Has one or more types of computing devices!!Other computer</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>575</v>
+      </c>
+      <c r="B19" t="s">
+        <v>576</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="2"/>
+        <v>Total MOE!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Other computer</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="3"/>
+        <v>Total MOE!!</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="4"/>
+        <v>Total MOE</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPES OF COMPUTER!!Has one or more types of computing devices!!Other computer</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPES OF COMPUTER!!</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPES OF COMPUTER</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="8"/>
+        <v>Has one or more types of computing devices!!Other computer</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>577</v>
+      </c>
+      <c r="B20" t="s">
+        <v>578</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="2"/>
+        <v>Total!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Other computer!!Other computer with no other type of computing device</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="3"/>
+        <v>Total!!</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="4"/>
+        <v>Total</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPES OF COMPUTER!!Has one or more types of computing devices!!Other computer!!Other computer with no other type of computing device</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPES OF COMPUTER!!</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPES OF COMPUTER</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="8"/>
+        <v>Has one or more types of computing devices!!Other computer!!Other computer with no other type of computing device</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>579</v>
+      </c>
+      <c r="B21" t="s">
+        <v>580</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="1"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="2"/>
+        <v>Total MOE!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Other computer!!Other computer with no other type of computing device</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="3"/>
+        <v>Total MOE!!</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="4"/>
+        <v>Total MOE</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPES OF COMPUTER!!Has one or more types of computing devices!!Other computer!!Other computer with no other type of computing device</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPES OF COMPUTER!!</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPES OF COMPUTER</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="8"/>
+        <v>Has one or more types of computing devices!!Other computer!!Other computer with no other type of computing device</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>581</v>
+      </c>
+      <c r="B22" t="s">
+        <v>582</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="1"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="2"/>
+        <v>Total!!TYPES OF COMPUTER!!No computer</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="3"/>
+        <v>Total!!</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="4"/>
+        <v>Total</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPES OF COMPUTER!!No computer</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPES OF COMPUTER!!</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPES OF COMPUTER</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="8"/>
+        <v>No computer</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>583</v>
+      </c>
+      <c r="B23" t="s">
+        <v>584</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="2"/>
+        <v>Total MOE!!TYPES OF COMPUTER!!No computer</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="3"/>
+        <v>Total MOE!!</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="4"/>
+        <v>Total MOE</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPES OF COMPUTER!!No computer</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPES OF COMPUTER!!</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPES OF COMPUTER</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="8"/>
+        <v>No computer</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>585</v>
+      </c>
+      <c r="B24" t="s">
+        <v>586</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="2"/>
+        <v>Total!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="3"/>
+        <v>Total!!</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="4"/>
+        <v>Total</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="8"/>
+        <v>With an Internet subscription</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>587</v>
+      </c>
+      <c r="B25" t="s">
+        <v>588</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="1"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="2"/>
+        <v>Total MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="3"/>
+        <v>Total MOE!!</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="4"/>
+        <v>Total MOE</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="8"/>
+        <v>With an Internet subscription</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>589</v>
+      </c>
+      <c r="B26" t="s">
+        <v>590</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="1"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="2"/>
+        <v>Total!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Dial-up with no other type of Internet subscription</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="3"/>
+        <v>Total!!</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="4"/>
+        <v>Total</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Dial-up with no other type of Internet subscription</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="8"/>
+        <v>With an Internet subscription!!Dial-up with no other type of Internet subscription</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>591</v>
+      </c>
+      <c r="B27" t="s">
+        <v>592</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="1"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="2"/>
+        <v>Total MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Dial-up with no other type of Internet subscription</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="3"/>
+        <v>Total MOE!!</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="4"/>
+        <v>Total MOE</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Dial-up with no other type of Internet subscription</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="8"/>
+        <v>With an Internet subscription!!Dial-up with no other type of Internet subscription</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>593</v>
+      </c>
+      <c r="B28" t="s">
+        <v>594</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="1"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="2"/>
+        <v>Total!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="3"/>
+        <v>Total!!</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="4"/>
+        <v>Total</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="8"/>
+        <v>With an Internet subscription!!Broadband of any type</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>595</v>
+      </c>
+      <c r="B29" t="s">
+        <v>596</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="1"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="2"/>
+        <v>Total MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="3"/>
+        <v>Total MOE!!</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="4"/>
+        <v>Total MOE</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="8"/>
+        <v>With an Internet subscription!!Broadband of any type</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>597</v>
+      </c>
+      <c r="B30" t="s">
+        <v>598</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="1"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="2"/>
+        <v>Total!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type!!Cellular data plan</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="3"/>
+        <v>Total!!</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="4"/>
+        <v>Total</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type!!Cellular data plan</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="8"/>
+        <v>With an Internet subscription!!Broadband of any type!!Cellular data plan</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>599</v>
+      </c>
+      <c r="B31" t="s">
+        <v>600</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="1"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="2"/>
+        <v>Total MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type!!Cellular data plan</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="3"/>
+        <v>Total MOE!!</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="4"/>
+        <v>Total MOE</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type!!Cellular data plan</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="8"/>
+        <v>With an Internet subscription!!Broadband of any type!!Cellular data plan</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>601</v>
+      </c>
+      <c r="B32" t="s">
+        <v>602</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="1"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="2"/>
+        <v>Total!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type!!Cellular data plan!!Cellular data plan with no other type of Internet subscription</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="3"/>
+        <v>Total!!</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="4"/>
+        <v>Total</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type!!Cellular data plan!!Cellular data plan with no other type of Internet subscription</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="8"/>
+        <v>With an Internet subscription!!Broadband of any type!!Cellular data plan!!Cellular data plan with no other type of Internet subscription</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>603</v>
+      </c>
+      <c r="B33" t="s">
+        <v>604</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="1"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="2"/>
+        <v>Total MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type!!Cellular data plan!!Cellular data plan with no other type of Internet subscription</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="3"/>
+        <v>Total MOE!!</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="4"/>
+        <v>Total MOE</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type!!Cellular data plan!!Cellular data plan with no other type of Internet subscription</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="8"/>
+        <v>With an Internet subscription!!Broadband of any type!!Cellular data plan!!Cellular data plan with no other type of Internet subscription</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>605</v>
+      </c>
+      <c r="B34" t="s">
+        <v>606</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="1"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="2"/>
+        <v>Total!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type!!Broadband such as cable, fiber optic or DSL</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="3"/>
+        <v>Total!!</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="4"/>
+        <v>Total</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type!!Broadband such as cable, fiber optic or DSL</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="8"/>
+        <v>With an Internet subscription!!Broadband of any type!!Broadband such as cable, fiber optic or DSL</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>607</v>
+      </c>
+      <c r="B35" t="s">
+        <v>608</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="1"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="2"/>
+        <v>Total MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type!!Broadband such as cable, fiber optic or DSL</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="3"/>
+        <v>Total MOE!!</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="4"/>
+        <v>Total MOE</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type!!Broadband such as cable, fiber optic or DSL</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="8"/>
+        <v>With an Internet subscription!!Broadband of any type!!Broadband such as cable, fiber optic or DSL</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>609</v>
+      </c>
+      <c r="B36" t="s">
+        <v>610</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="1"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="2"/>
+        <v>Total!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type!!Satellite Internet service</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="3"/>
+        <v>Total!!</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="4"/>
+        <v>Total</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type!!Satellite Internet service</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="8"/>
+        <v>With an Internet subscription!!Broadband of any type!!Satellite Internet service</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>611</v>
+      </c>
+      <c r="B37" t="s">
+        <v>612</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="1"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="2"/>
+        <v>Total MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type!!Satellite Internet service</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="3"/>
+        <v>Total MOE!!</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="4"/>
+        <v>Total MOE</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type!!Satellite Internet service</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K37" t="str">
+        <f t="shared" si="8"/>
+        <v>With an Internet subscription!!Broadband of any type!!Satellite Internet service</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>613</v>
+      </c>
+      <c r="B38" t="s">
+        <v>614</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="1"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="2"/>
+        <v>Total!!TYPE OF INTERNET SUBSCRIPTIONS!!Without an Internet subscription</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="3"/>
+        <v>Total!!</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="4"/>
+        <v>Total</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!Without an Internet subscription</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" si="8"/>
+        <v>Without an Internet subscription</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>615</v>
+      </c>
+      <c r="B39" t="s">
+        <v>616</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="1"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="2"/>
+        <v>Total MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!Without an Internet subscription</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="3"/>
+        <v>Total MOE!!</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="4"/>
+        <v>Total MOE</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!Without an Internet subscription</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" si="8"/>
+        <v>Without an Internet subscription</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
+        <v>617</v>
+      </c>
+      <c r="B40" t="s">
+        <v>618</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="1"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="2"/>
+        <v>Total!!TYPE OF INTERNET SUBSCRIPTIONS!!Less than $20,000</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="3"/>
+        <v>Total!!</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="4"/>
+        <v>Total</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!Less than $20,000</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" si="8"/>
+        <v>Less than $20,000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" t="s">
+        <v>619</v>
+      </c>
+      <c r="B41" t="s">
+        <v>620</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="1"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="2"/>
+        <v>Total MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!Less than $20,000</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="3"/>
+        <v>Total MOE!!</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="4"/>
+        <v>Total MOE</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!Less than $20,000</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="8"/>
+        <v>Less than $20,000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" t="s">
+        <v>621</v>
+      </c>
+      <c r="B42" t="s">
+        <v>622</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="1"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="2"/>
+        <v>Total!!TYPE OF INTERNET SUBSCRIPTIONS!!Less than $20,000!!With dial-up Internet subscription alone</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="3"/>
+        <v>Total!!</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="4"/>
+        <v>Total</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!Less than $20,000!!With dial-up Internet subscription alone</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="8"/>
+        <v>Less than $20,000!!With dial-up Internet subscription alone</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" t="s">
+        <v>623</v>
+      </c>
+      <c r="B43" t="s">
+        <v>624</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="1"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="2"/>
+        <v>Total MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!Less than $20,000!!With dial-up Internet subscription alone</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="3"/>
+        <v>Total MOE!!</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="4"/>
+        <v>Total MOE</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!Less than $20,000!!With dial-up Internet subscription alone</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" si="8"/>
+        <v>Less than $20,000!!With dial-up Internet subscription alone</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" t="s">
+        <v>625</v>
+      </c>
+      <c r="B44" t="s">
+        <v>626</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="1"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="2"/>
+        <v>Total!!TYPE OF INTERNET SUBSCRIPTIONS!!Less than $20,000!!With a broadband Internet subscription</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="3"/>
+        <v>Total!!</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="4"/>
+        <v>Total</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!Less than $20,000!!With a broadband Internet subscription</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K44" t="str">
+        <f t="shared" si="8"/>
+        <v>Less than $20,000!!With a broadband Internet subscription</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" t="s">
+        <v>627</v>
+      </c>
+      <c r="B45" t="s">
+        <v>628</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="1"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="2"/>
+        <v>Total MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!Less than $20,000!!With a broadband Internet subscription</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="3"/>
+        <v>Total MOE!!</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="4"/>
+        <v>Total MOE</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!Less than $20,000!!With a broadband Internet subscription</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K45" t="str">
+        <f t="shared" si="8"/>
+        <v>Less than $20,000!!With a broadband Internet subscription</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
+        <v>629</v>
+      </c>
+      <c r="B46" t="s">
+        <v>630</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="1"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="2"/>
+        <v>Total!!TYPE OF INTERNET SUBSCRIPTIONS!!Less than $20,000!!Without an Internet subscription</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="3"/>
+        <v>Total!!</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="4"/>
+        <v>Total</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!Less than $20,000!!Without an Internet subscription</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" si="8"/>
+        <v>Less than $20,000!!Without an Internet subscription</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" t="s">
+        <v>631</v>
+      </c>
+      <c r="B47" t="s">
+        <v>632</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="1"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="2"/>
+        <v>Total MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!Less than $20,000!!Without an Internet subscription</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="3"/>
+        <v>Total MOE!!</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="4"/>
+        <v>Total MOE</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!Less than $20,000!!Without an Internet subscription</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" si="8"/>
+        <v>Less than $20,000!!Without an Internet subscription</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>633</v>
+      </c>
+      <c r="B48" t="s">
+        <v>634</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="1"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="2"/>
+        <v>Total!!TYPE OF INTERNET SUBSCRIPTIONS!!$20,000 to $74,999</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="3"/>
+        <v>Total!!</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="4"/>
+        <v>Total</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!$20,000 to $74,999</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K48" t="str">
+        <f t="shared" si="8"/>
+        <v>$20,000 to $74,999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" t="s">
+        <v>635</v>
+      </c>
+      <c r="B49" t="s">
+        <v>636</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="1"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="2"/>
+        <v>Total MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!$20,000 to $74,999</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="3"/>
+        <v>Total MOE!!</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="4"/>
+        <v>Total MOE</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!$20,000 to $74,999</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K49" t="str">
+        <f t="shared" si="8"/>
+        <v>$20,000 to $74,999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" t="s">
+        <v>637</v>
+      </c>
+      <c r="B50" t="s">
+        <v>638</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="1"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="2"/>
+        <v>Total!!TYPE OF INTERNET SUBSCRIPTIONS!!$20,000 to $74,999!!With dial-up Internet subscription alone</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="3"/>
+        <v>Total!!</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="4"/>
+        <v>Total</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!$20,000 to $74,999!!With dial-up Internet subscription alone</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K50" t="str">
+        <f t="shared" si="8"/>
+        <v>$20,000 to $74,999!!With dial-up Internet subscription alone</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" t="s">
+        <v>639</v>
+      </c>
+      <c r="B51" t="s">
+        <v>640</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="1"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="2"/>
+        <v>Total MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!$20,000 to $74,999!!With dial-up Internet subscription alone</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="3"/>
+        <v>Total MOE!!</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="4"/>
+        <v>Total MOE</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!$20,000 to $74,999!!With dial-up Internet subscription alone</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K51" t="str">
+        <f t="shared" si="8"/>
+        <v>$20,000 to $74,999!!With dial-up Internet subscription alone</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" t="s">
+        <v>641</v>
+      </c>
+      <c r="B52" t="s">
+        <v>642</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="1"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="2"/>
+        <v>Total!!TYPE OF INTERNET SUBSCRIPTIONS!!$20,000 to $74,999!!With a broadband Internet subscription</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="3"/>
+        <v>Total!!</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="4"/>
+        <v>Total</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!$20,000 to $74,999!!With a broadband Internet subscription</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K52" t="str">
+        <f t="shared" si="8"/>
+        <v>$20,000 to $74,999!!With a broadband Internet subscription</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" t="s">
+        <v>643</v>
+      </c>
+      <c r="B53" t="s">
+        <v>644</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="0"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="1"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="2"/>
+        <v>Total MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!$20,000 to $74,999!!With a broadband Internet subscription</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="3"/>
+        <v>Total MOE!!</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="4"/>
+        <v>Total MOE</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!$20,000 to $74,999!!With a broadband Internet subscription</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K53" t="str">
+        <f t="shared" si="8"/>
+        <v>$20,000 to $74,999!!With a broadband Internet subscription</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" t="s">
+        <v>645</v>
+      </c>
+      <c r="B54" t="s">
+        <v>646</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="0"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="1"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="2"/>
+        <v>Total!!TYPE OF INTERNET SUBSCRIPTIONS!!$20,000 to $74,999!!Without an Internet subscription</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="3"/>
+        <v>Total!!</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="4"/>
+        <v>Total</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!$20,000 to $74,999!!Without an Internet subscription</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K54" t="str">
+        <f t="shared" si="8"/>
+        <v>$20,000 to $74,999!!Without an Internet subscription</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" t="s">
+        <v>647</v>
+      </c>
+      <c r="B55" t="s">
+        <v>648</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="1"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="2"/>
+        <v>Total MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!$20,000 to $74,999!!Without an Internet subscription</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="3"/>
+        <v>Total MOE!!</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="4"/>
+        <v>Total MOE</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!$20,000 to $74,999!!Without an Internet subscription</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K55" t="str">
+        <f t="shared" si="8"/>
+        <v>$20,000 to $74,999!!Without an Internet subscription</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" t="s">
+        <v>649</v>
+      </c>
+      <c r="B56" t="s">
+        <v>650</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="0"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="1"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="2"/>
+        <v>Total!!TYPE OF INTERNET SUBSCRIPTIONS!!$75,000 or more</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="3"/>
+        <v>Total!!</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="4"/>
+        <v>Total</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!$75,000 or more</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J56" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K56" t="str">
+        <f t="shared" si="8"/>
+        <v>$75,000 or more</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" t="s">
+        <v>651</v>
+      </c>
+      <c r="B57" t="s">
+        <v>652</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="0"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="1"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="2"/>
+        <v>Total MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!$75,000 or more</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="3"/>
+        <v>Total MOE!!</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="4"/>
+        <v>Total MOE</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!$75,000 or more</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J57" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K57" t="str">
+        <f t="shared" si="8"/>
+        <v>$75,000 or more</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" t="s">
+        <v>653</v>
+      </c>
+      <c r="B58" t="s">
+        <v>654</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="0"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="1"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="2"/>
+        <v>Total!!TYPE OF INTERNET SUBSCRIPTIONS!!$75,000 or more!!With dial-up Internet subscription alone</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="3"/>
+        <v>Total!!</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="4"/>
+        <v>Total</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!$75,000 or more!!With dial-up Internet subscription alone</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J58" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K58" t="str">
+        <f t="shared" si="8"/>
+        <v>$75,000 or more!!With dial-up Internet subscription alone</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" t="s">
+        <v>655</v>
+      </c>
+      <c r="B59" t="s">
+        <v>656</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="0"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="1"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="2"/>
+        <v>Total MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!$75,000 or more!!With dial-up Internet subscription alone</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="3"/>
+        <v>Total MOE!!</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="4"/>
+        <v>Total MOE</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!$75,000 or more!!With dial-up Internet subscription alone</v>
+      </c>
+      <c r="I59" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J59" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K59" t="str">
+        <f t="shared" si="8"/>
+        <v>$75,000 or more!!With dial-up Internet subscription alone</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" t="s">
+        <v>657</v>
+      </c>
+      <c r="B60" t="s">
+        <v>658</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="0"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="1"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="2"/>
+        <v>Total!!TYPE OF INTERNET SUBSCRIPTIONS!!$75,000 or more!!With a broadband Internet subscription</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="3"/>
+        <v>Total!!</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="4"/>
+        <v>Total</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!$75,000 or more!!With a broadband Internet subscription</v>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J60" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K60" t="str">
+        <f t="shared" si="8"/>
+        <v>$75,000 or more!!With a broadband Internet subscription</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" t="s">
+        <v>659</v>
+      </c>
+      <c r="B61" t="s">
+        <v>660</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="0"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="1"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="2"/>
+        <v>Total MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!$75,000 or more!!With a broadband Internet subscription</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="3"/>
+        <v>Total MOE!!</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="4"/>
+        <v>Total MOE</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!$75,000 or more!!With a broadband Internet subscription</v>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J61" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K61" t="str">
+        <f t="shared" si="8"/>
+        <v>$75,000 or more!!With a broadband Internet subscription</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" t="s">
+        <v>661</v>
+      </c>
+      <c r="B62" t="s">
+        <v>662</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="0"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="1"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="2"/>
+        <v>Total!!TYPE OF INTERNET SUBSCRIPTIONS!!$75,000 or more!!Without an Internet subscription</v>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" si="3"/>
+        <v>Total!!</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="4"/>
+        <v>Total</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!$75,000 or more!!Without an Internet subscription</v>
+      </c>
+      <c r="I62" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J62" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K62" t="str">
+        <f t="shared" si="8"/>
+        <v>$75,000 or more!!Without an Internet subscription</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" t="s">
+        <v>663</v>
+      </c>
+      <c r="B63" t="s">
+        <v>664</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="0"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="1"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="2"/>
+        <v>Total MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!$75,000 or more!!Without an Internet subscription</v>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" si="3"/>
+        <v>Total MOE!!</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="4"/>
+        <v>Total MOE</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!$75,000 or more!!Without an Internet subscription</v>
+      </c>
+      <c r="I63" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J63" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K63" t="str">
+        <f t="shared" si="8"/>
+        <v>$75,000 or more!!Without an Internet subscription</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" t="s">
+        <v>665</v>
+      </c>
+      <c r="B64" t="s">
+        <v>666</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="0"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="1"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="2"/>
+        <v>Percent!!Total households</v>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" si="3"/>
+        <v>Percent!!</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="4"/>
+        <v>Percent</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="5"/>
+        <v>Total households</v>
+      </c>
+      <c r="I64" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J64" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K64" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" t="s">
+        <v>667</v>
+      </c>
+      <c r="B65" t="s">
+        <v>668</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="0"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="1"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="2"/>
+        <v>Percent MOE!!Total households</v>
+      </c>
+      <c r="F65" t="str">
+        <f t="shared" si="3"/>
+        <v>Percent MOE!!</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="4"/>
+        <v>Percent MOE</v>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" si="5"/>
+        <v>Total households</v>
+      </c>
+      <c r="I65" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J65" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K65" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" t="s">
+        <v>669</v>
+      </c>
+      <c r="B66" t="s">
+        <v>670</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" si="0"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" si="1"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="2"/>
+        <v>Percent!!TYPES OF COMPUTER!!Has one or more types of computing devices</v>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" si="3"/>
+        <v>Percent!!</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="4"/>
+        <v>Percent</v>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" si="5"/>
+        <v>TYPES OF COMPUTER!!Has one or more types of computing devices</v>
+      </c>
+      <c r="I66" t="str">
+        <f t="shared" si="6"/>
+        <v>TYPES OF COMPUTER!!</v>
+      </c>
+      <c r="J66" t="str">
+        <f t="shared" si="7"/>
+        <v>TYPES OF COMPUTER</v>
+      </c>
+      <c r="K66" t="str">
+        <f t="shared" si="8"/>
+        <v>Has one or more types of computing devices</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" t="s">
+        <v>671</v>
+      </c>
+      <c r="B67" t="s">
+        <v>672</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" ref="C67:C125" si="9">LEFT(B67,SEARCH("!!",B67,1)+1)</f>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" ref="D67:D125" si="10">LEFT(B67,SEARCH("!!",B67,1)-1)</f>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" ref="E67:E125" si="11">SUBSTITUTE(B67,C67,"")</f>
+        <v>Percent MOE!!TYPES OF COMPUTER!!Has one or more types of computing devices</v>
+      </c>
+      <c r="F67" t="str">
+        <f t="shared" ref="F67:F125" si="12">LEFT(E67,SEARCH("!!",E67,1)+1)</f>
+        <v>Percent MOE!!</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" ref="G67:G125" si="13">LEFT(E67,SEARCH("!!",E67,1)-1)</f>
+        <v>Percent MOE</v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" ref="H67:H125" si="14">SUBSTITUTE(E67,F67,"")</f>
+        <v>TYPES OF COMPUTER!!Has one or more types of computing devices</v>
+      </c>
+      <c r="I67" t="str">
+        <f t="shared" ref="I67:I125" si="15">LEFT(H67,SEARCH("!!",H67,1)+1)</f>
+        <v>TYPES OF COMPUTER!!</v>
+      </c>
+      <c r="J67" t="str">
+        <f t="shared" ref="J67:J125" si="16">LEFT(H67,SEARCH("!!",H67,1)-1)</f>
+        <v>TYPES OF COMPUTER</v>
+      </c>
+      <c r="K67" t="str">
+        <f t="shared" ref="K67:K125" si="17">SUBSTITUTE(H67,I67,"")</f>
+        <v>Has one or more types of computing devices</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" t="s">
+        <v>673</v>
+      </c>
+      <c r="B68" t="s">
+        <v>674</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="9"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="10"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Desktop or laptop</v>
+      </c>
+      <c r="F68" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent!!</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent</v>
+      </c>
+      <c r="H68" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPES OF COMPUTER!!Has one or more types of computing devices!!Desktop or laptop</v>
+      </c>
+      <c r="I68" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPES OF COMPUTER!!</v>
+      </c>
+      <c r="J68" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPES OF COMPUTER</v>
+      </c>
+      <c r="K68" t="str">
+        <f t="shared" si="17"/>
+        <v>Has one or more types of computing devices!!Desktop or laptop</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" t="s">
+        <v>675</v>
+      </c>
+      <c r="B69" t="s">
+        <v>676</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="9"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="10"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent MOE!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Desktop or laptop</v>
+      </c>
+      <c r="F69" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent MOE!!</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent MOE</v>
+      </c>
+      <c r="H69" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPES OF COMPUTER!!Has one or more types of computing devices!!Desktop or laptop</v>
+      </c>
+      <c r="I69" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPES OF COMPUTER!!</v>
+      </c>
+      <c r="J69" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPES OF COMPUTER</v>
+      </c>
+      <c r="K69" t="str">
+        <f t="shared" si="17"/>
+        <v>Has one or more types of computing devices!!Desktop or laptop</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" t="s">
+        <v>677</v>
+      </c>
+      <c r="B70" t="s">
+        <v>678</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" si="9"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="10"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Desktop or laptop!!Desktop or laptop with no other type of computing device</v>
+      </c>
+      <c r="F70" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent!!</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent</v>
+      </c>
+      <c r="H70" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPES OF COMPUTER!!Has one or more types of computing devices!!Desktop or laptop!!Desktop or laptop with no other type of computing device</v>
+      </c>
+      <c r="I70" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPES OF COMPUTER!!</v>
+      </c>
+      <c r="J70" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPES OF COMPUTER</v>
+      </c>
+      <c r="K70" t="str">
+        <f t="shared" si="17"/>
+        <v>Has one or more types of computing devices!!Desktop or laptop!!Desktop or laptop with no other type of computing device</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" t="s">
+        <v>679</v>
+      </c>
+      <c r="B71" t="s">
+        <v>680</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="9"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="10"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent MOE!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Desktop or laptop!!Desktop or laptop with no other type of computing device</v>
+      </c>
+      <c r="F71" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent MOE!!</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent MOE</v>
+      </c>
+      <c r="H71" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPES OF COMPUTER!!Has one or more types of computing devices!!Desktop or laptop!!Desktop or laptop with no other type of computing device</v>
+      </c>
+      <c r="I71" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPES OF COMPUTER!!</v>
+      </c>
+      <c r="J71" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPES OF COMPUTER</v>
+      </c>
+      <c r="K71" t="str">
+        <f t="shared" si="17"/>
+        <v>Has one or more types of computing devices!!Desktop or laptop!!Desktop or laptop with no other type of computing device</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" t="s">
+        <v>681</v>
+      </c>
+      <c r="B72" t="s">
+        <v>682</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="9"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="10"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Smartphone</v>
+      </c>
+      <c r="F72" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent!!</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent</v>
+      </c>
+      <c r="H72" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPES OF COMPUTER!!Has one or more types of computing devices!!Smartphone</v>
+      </c>
+      <c r="I72" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPES OF COMPUTER!!</v>
+      </c>
+      <c r="J72" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPES OF COMPUTER</v>
+      </c>
+      <c r="K72" t="str">
+        <f t="shared" si="17"/>
+        <v>Has one or more types of computing devices!!Smartphone</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" t="s">
+        <v>683</v>
+      </c>
+      <c r="B73" t="s">
+        <v>684</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="9"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="10"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent MOE!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Smartphone</v>
+      </c>
+      <c r="F73" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent MOE!!</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent MOE</v>
+      </c>
+      <c r="H73" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPES OF COMPUTER!!Has one or more types of computing devices!!Smartphone</v>
+      </c>
+      <c r="I73" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPES OF COMPUTER!!</v>
+      </c>
+      <c r="J73" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPES OF COMPUTER</v>
+      </c>
+      <c r="K73" t="str">
+        <f t="shared" si="17"/>
+        <v>Has one or more types of computing devices!!Smartphone</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" t="s">
+        <v>685</v>
+      </c>
+      <c r="B74" t="s">
+        <v>686</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="9"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="10"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Smartphone!!Smartphone with no other type of computing device</v>
+      </c>
+      <c r="F74" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent!!</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent</v>
+      </c>
+      <c r="H74" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPES OF COMPUTER!!Has one or more types of computing devices!!Smartphone!!Smartphone with no other type of computing device</v>
+      </c>
+      <c r="I74" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPES OF COMPUTER!!</v>
+      </c>
+      <c r="J74" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPES OF COMPUTER</v>
+      </c>
+      <c r="K74" t="str">
+        <f t="shared" si="17"/>
+        <v>Has one or more types of computing devices!!Smartphone!!Smartphone with no other type of computing device</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" t="s">
+        <v>687</v>
+      </c>
+      <c r="B75" t="s">
+        <v>688</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="9"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="10"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent MOE!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Smartphone!!Smartphone with no other type of computing device</v>
+      </c>
+      <c r="F75" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent MOE!!</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent MOE</v>
+      </c>
+      <c r="H75" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPES OF COMPUTER!!Has one or more types of computing devices!!Smartphone!!Smartphone with no other type of computing device</v>
+      </c>
+      <c r="I75" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPES OF COMPUTER!!</v>
+      </c>
+      <c r="J75" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPES OF COMPUTER</v>
+      </c>
+      <c r="K75" t="str">
+        <f t="shared" si="17"/>
+        <v>Has one or more types of computing devices!!Smartphone!!Smartphone with no other type of computing device</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" t="s">
+        <v>689</v>
+      </c>
+      <c r="B76" t="s">
+        <v>690</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="9"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="10"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Tablet or other portable wireless computer</v>
+      </c>
+      <c r="F76" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent!!</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent</v>
+      </c>
+      <c r="H76" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPES OF COMPUTER!!Has one or more types of computing devices!!Tablet or other portable wireless computer</v>
+      </c>
+      <c r="I76" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPES OF COMPUTER!!</v>
+      </c>
+      <c r="J76" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPES OF COMPUTER</v>
+      </c>
+      <c r="K76" t="str">
+        <f t="shared" si="17"/>
+        <v>Has one or more types of computing devices!!Tablet or other portable wireless computer</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" t="s">
+        <v>691</v>
+      </c>
+      <c r="B77" t="s">
+        <v>692</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="9"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="10"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent MOE!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Tablet or other portable wireless computer</v>
+      </c>
+      <c r="F77" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent MOE!!</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent MOE</v>
+      </c>
+      <c r="H77" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPES OF COMPUTER!!Has one or more types of computing devices!!Tablet or other portable wireless computer</v>
+      </c>
+      <c r="I77" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPES OF COMPUTER!!</v>
+      </c>
+      <c r="J77" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPES OF COMPUTER</v>
+      </c>
+      <c r="K77" t="str">
+        <f t="shared" si="17"/>
+        <v>Has one or more types of computing devices!!Tablet or other portable wireless computer</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" t="s">
+        <v>693</v>
+      </c>
+      <c r="B78" t="s">
+        <v>694</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="9"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="10"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Tablet or other portable wireless computer!!Tablet or other portable wireless computer with no other type of computing device</v>
+      </c>
+      <c r="F78" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent!!</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent</v>
+      </c>
+      <c r="H78" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPES OF COMPUTER!!Has one or more types of computing devices!!Tablet or other portable wireless computer!!Tablet or other portable wireless computer with no other type of computing device</v>
+      </c>
+      <c r="I78" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPES OF COMPUTER!!</v>
+      </c>
+      <c r="J78" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPES OF COMPUTER</v>
+      </c>
+      <c r="K78" t="str">
+        <f t="shared" si="17"/>
+        <v>Has one or more types of computing devices!!Tablet or other portable wireless computer!!Tablet or other portable wireless computer with no other type of computing device</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" t="s">
+        <v>695</v>
+      </c>
+      <c r="B79" t="s">
+        <v>696</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="9"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="10"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent MOE!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Tablet or other portable wireless computer!!Tablet or other portable wireless computer with no other type of computing device</v>
+      </c>
+      <c r="F79" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent MOE!!</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent MOE</v>
+      </c>
+      <c r="H79" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPES OF COMPUTER!!Has one or more types of computing devices!!Tablet or other portable wireless computer!!Tablet or other portable wireless computer with no other type of computing device</v>
+      </c>
+      <c r="I79" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPES OF COMPUTER!!</v>
+      </c>
+      <c r="J79" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPES OF COMPUTER</v>
+      </c>
+      <c r="K79" t="str">
+        <f t="shared" si="17"/>
+        <v>Has one or more types of computing devices!!Tablet or other portable wireless computer!!Tablet or other portable wireless computer with no other type of computing device</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" t="s">
+        <v>697</v>
+      </c>
+      <c r="B80" t="s">
+        <v>698</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="9"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="10"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Other computer</v>
+      </c>
+      <c r="F80" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent!!</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent</v>
+      </c>
+      <c r="H80" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPES OF COMPUTER!!Has one or more types of computing devices!!Other computer</v>
+      </c>
+      <c r="I80" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPES OF COMPUTER!!</v>
+      </c>
+      <c r="J80" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPES OF COMPUTER</v>
+      </c>
+      <c r="K80" t="str">
+        <f t="shared" si="17"/>
+        <v>Has one or more types of computing devices!!Other computer</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" t="s">
+        <v>699</v>
+      </c>
+      <c r="B81" t="s">
+        <v>700</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="9"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="10"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent MOE!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Other computer</v>
+      </c>
+      <c r="F81" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent MOE!!</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent MOE</v>
+      </c>
+      <c r="H81" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPES OF COMPUTER!!Has one or more types of computing devices!!Other computer</v>
+      </c>
+      <c r="I81" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPES OF COMPUTER!!</v>
+      </c>
+      <c r="J81" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPES OF COMPUTER</v>
+      </c>
+      <c r="K81" t="str">
+        <f t="shared" si="17"/>
+        <v>Has one or more types of computing devices!!Other computer</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" t="s">
+        <v>701</v>
+      </c>
+      <c r="B82" t="s">
+        <v>702</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="9"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="10"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Other computer!!Other computer with no other type of computing device</v>
+      </c>
+      <c r="F82" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent!!</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent</v>
+      </c>
+      <c r="H82" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPES OF COMPUTER!!Has one or more types of computing devices!!Other computer!!Other computer with no other type of computing device</v>
+      </c>
+      <c r="I82" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPES OF COMPUTER!!</v>
+      </c>
+      <c r="J82" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPES OF COMPUTER</v>
+      </c>
+      <c r="K82" t="str">
+        <f t="shared" si="17"/>
+        <v>Has one or more types of computing devices!!Other computer!!Other computer with no other type of computing device</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" t="s">
+        <v>703</v>
+      </c>
+      <c r="B83" t="s">
+        <v>704</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="9"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="10"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent MOE!!TYPES OF COMPUTER!!Has one or more types of computing devices!!Other computer!!Other computer with no other type of computing device</v>
+      </c>
+      <c r="F83" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent MOE!!</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent MOE</v>
+      </c>
+      <c r="H83" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPES OF COMPUTER!!Has one or more types of computing devices!!Other computer!!Other computer with no other type of computing device</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPES OF COMPUTER!!</v>
+      </c>
+      <c r="J83" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPES OF COMPUTER</v>
+      </c>
+      <c r="K83" t="str">
+        <f t="shared" si="17"/>
+        <v>Has one or more types of computing devices!!Other computer!!Other computer with no other type of computing device</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" t="s">
+        <v>705</v>
+      </c>
+      <c r="B84" t="s">
+        <v>706</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" si="9"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="10"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent!!TYPES OF COMPUTER!!No computer</v>
+      </c>
+      <c r="F84" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent!!</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent</v>
+      </c>
+      <c r="H84" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPES OF COMPUTER!!No computer</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPES OF COMPUTER!!</v>
+      </c>
+      <c r="J84" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPES OF COMPUTER</v>
+      </c>
+      <c r="K84" t="str">
+        <f t="shared" si="17"/>
+        <v>No computer</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" t="s">
+        <v>707</v>
+      </c>
+      <c r="B85" t="s">
+        <v>708</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" si="9"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="10"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent MOE!!TYPES OF COMPUTER!!No computer</v>
+      </c>
+      <c r="F85" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent MOE!!</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent MOE</v>
+      </c>
+      <c r="H85" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPES OF COMPUTER!!No computer</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPES OF COMPUTER!!</v>
+      </c>
+      <c r="J85" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPES OF COMPUTER</v>
+      </c>
+      <c r="K85" t="str">
+        <f t="shared" si="17"/>
+        <v>No computer</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" t="s">
+        <v>709</v>
+      </c>
+      <c r="B86" t="s">
+        <v>710</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" si="9"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" si="10"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription</v>
+      </c>
+      <c r="F86" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent!!</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent</v>
+      </c>
+      <c r="H86" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J86" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K86" t="str">
+        <f t="shared" si="17"/>
+        <v>With an Internet subscription</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" t="s">
+        <v>711</v>
+      </c>
+      <c r="B87" t="s">
+        <v>712</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" si="9"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" si="10"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription</v>
+      </c>
+      <c r="F87" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent MOE!!</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent MOE</v>
+      </c>
+      <c r="H87" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J87" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K87" t="str">
+        <f t="shared" si="17"/>
+        <v>With an Internet subscription</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" t="s">
+        <v>713</v>
+      </c>
+      <c r="B88" t="s">
+        <v>714</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" si="9"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" si="10"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Dial-up with no other type of Internet subscription</v>
+      </c>
+      <c r="F88" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent!!</v>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent</v>
+      </c>
+      <c r="H88" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Dial-up with no other type of Internet subscription</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J88" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K88" t="str">
+        <f t="shared" si="17"/>
+        <v>With an Internet subscription!!Dial-up with no other type of Internet subscription</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" t="s">
+        <v>715</v>
+      </c>
+      <c r="B89" t="s">
+        <v>716</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" si="9"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" si="10"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Dial-up with no other type of Internet subscription</v>
+      </c>
+      <c r="F89" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent MOE!!</v>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent MOE</v>
+      </c>
+      <c r="H89" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Dial-up with no other type of Internet subscription</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J89" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K89" t="str">
+        <f t="shared" si="17"/>
+        <v>With an Internet subscription!!Dial-up with no other type of Internet subscription</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" t="s">
+        <v>717</v>
+      </c>
+      <c r="B90" t="s">
+        <v>718</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" si="9"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="10"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type</v>
+      </c>
+      <c r="F90" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent!!</v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent</v>
+      </c>
+      <c r="H90" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J90" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K90" t="str">
+        <f t="shared" si="17"/>
+        <v>With an Internet subscription!!Broadband of any type</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" t="s">
+        <v>719</v>
+      </c>
+      <c r="B91" t="s">
+        <v>720</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" si="9"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="10"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type</v>
+      </c>
+      <c r="F91" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent MOE!!</v>
+      </c>
+      <c r="G91" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent MOE</v>
+      </c>
+      <c r="H91" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J91" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K91" t="str">
+        <f t="shared" si="17"/>
+        <v>With an Internet subscription!!Broadband of any type</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" t="s">
+        <v>721</v>
+      </c>
+      <c r="B92" t="s">
+        <v>722</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" si="9"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" si="10"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type!!Cellular data plan</v>
+      </c>
+      <c r="F92" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent!!</v>
+      </c>
+      <c r="G92" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent</v>
+      </c>
+      <c r="H92" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type!!Cellular data plan</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J92" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K92" t="str">
+        <f t="shared" si="17"/>
+        <v>With an Internet subscription!!Broadband of any type!!Cellular data plan</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" t="s">
+        <v>723</v>
+      </c>
+      <c r="B93" t="s">
+        <v>724</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" si="9"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" si="10"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type!!Cellular data plan</v>
+      </c>
+      <c r="F93" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent MOE!!</v>
+      </c>
+      <c r="G93" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent MOE</v>
+      </c>
+      <c r="H93" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type!!Cellular data plan</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J93" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K93" t="str">
+        <f t="shared" si="17"/>
+        <v>With an Internet subscription!!Broadband of any type!!Cellular data plan</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" t="s">
+        <v>725</v>
+      </c>
+      <c r="B94" t="s">
+        <v>726</v>
+      </c>
+      <c r="C94" t="str">
+        <f t="shared" si="9"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D94" t="str">
+        <f t="shared" si="10"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E94" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type!!Cellular data plan!!Cellular data plan with no other type of Internet subscription</v>
+      </c>
+      <c r="F94" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent!!</v>
+      </c>
+      <c r="G94" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent</v>
+      </c>
+      <c r="H94" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type!!Cellular data plan!!Cellular data plan with no other type of Internet subscription</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J94" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K94" t="str">
+        <f t="shared" si="17"/>
+        <v>With an Internet subscription!!Broadband of any type!!Cellular data plan!!Cellular data plan with no other type of Internet subscription</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" t="s">
+        <v>727</v>
+      </c>
+      <c r="B95" t="s">
+        <v>728</v>
+      </c>
+      <c r="C95" t="str">
+        <f t="shared" si="9"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D95" t="str">
+        <f t="shared" si="10"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type!!Cellular data plan!!Cellular data plan with no other type of Internet subscription</v>
+      </c>
+      <c r="F95" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent MOE!!</v>
+      </c>
+      <c r="G95" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent MOE</v>
+      </c>
+      <c r="H95" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type!!Cellular data plan!!Cellular data plan with no other type of Internet subscription</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J95" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K95" t="str">
+        <f t="shared" si="17"/>
+        <v>With an Internet subscription!!Broadband of any type!!Cellular data plan!!Cellular data plan with no other type of Internet subscription</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" t="s">
+        <v>729</v>
+      </c>
+      <c r="B96" t="s">
+        <v>730</v>
+      </c>
+      <c r="C96" t="str">
+        <f t="shared" si="9"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D96" t="str">
+        <f t="shared" si="10"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E96" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type!!Broadband such as cable, fiber optic or DSL</v>
+      </c>
+      <c r="F96" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent!!</v>
+      </c>
+      <c r="G96" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent</v>
+      </c>
+      <c r="H96" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type!!Broadband such as cable, fiber optic or DSL</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J96" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K96" t="str">
+        <f t="shared" si="17"/>
+        <v>With an Internet subscription!!Broadband of any type!!Broadband such as cable, fiber optic or DSL</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" t="s">
+        <v>731</v>
+      </c>
+      <c r="B97" t="s">
+        <v>732</v>
+      </c>
+      <c r="C97" t="str">
+        <f t="shared" si="9"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D97" t="str">
+        <f t="shared" si="10"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E97" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type!!Broadband such as cable, fiber optic or DSL</v>
+      </c>
+      <c r="F97" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent MOE!!</v>
+      </c>
+      <c r="G97" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent MOE</v>
+      </c>
+      <c r="H97" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type!!Broadband such as cable, fiber optic or DSL</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J97" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K97" t="str">
+        <f t="shared" si="17"/>
+        <v>With an Internet subscription!!Broadband of any type!!Broadband such as cable, fiber optic or DSL</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" t="s">
+        <v>733</v>
+      </c>
+      <c r="B98" t="s">
+        <v>734</v>
+      </c>
+      <c r="C98" t="str">
+        <f t="shared" si="9"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D98" t="str">
+        <f t="shared" si="10"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E98" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type!!Satellite Internet service</v>
+      </c>
+      <c r="F98" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent!!</v>
+      </c>
+      <c r="G98" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent</v>
+      </c>
+      <c r="H98" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type!!Satellite Internet service</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J98" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K98" t="str">
+        <f t="shared" si="17"/>
+        <v>With an Internet subscription!!Broadband of any type!!Satellite Internet service</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" t="s">
+        <v>735</v>
+      </c>
+      <c r="B99" t="s">
+        <v>736</v>
+      </c>
+      <c r="C99" t="str">
+        <f t="shared" si="9"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D99" t="str">
+        <f t="shared" si="10"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E99" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type!!Satellite Internet service</v>
+      </c>
+      <c r="F99" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent MOE!!</v>
+      </c>
+      <c r="G99" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent MOE</v>
+      </c>
+      <c r="H99" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!With an Internet subscription!!Broadband of any type!!Satellite Internet service</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J99" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K99" t="str">
+        <f t="shared" si="17"/>
+        <v>With an Internet subscription!!Broadband of any type!!Satellite Internet service</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" t="s">
+        <v>737</v>
+      </c>
+      <c r="B100" t="s">
+        <v>738</v>
+      </c>
+      <c r="C100" t="str">
+        <f t="shared" si="9"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D100" t="str">
+        <f t="shared" si="10"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E100" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent!!TYPE OF INTERNET SUBSCRIPTIONS!!Without an Internet subscription</v>
+      </c>
+      <c r="F100" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent!!</v>
+      </c>
+      <c r="G100" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent</v>
+      </c>
+      <c r="H100" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!Without an Internet subscription</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J100" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K100" t="str">
+        <f t="shared" si="17"/>
+        <v>Without an Internet subscription</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" t="s">
+        <v>739</v>
+      </c>
+      <c r="B101" t="s">
+        <v>740</v>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" si="9"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D101" t="str">
+        <f t="shared" si="10"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E101" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!Without an Internet subscription</v>
+      </c>
+      <c r="F101" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent MOE!!</v>
+      </c>
+      <c r="G101" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent MOE</v>
+      </c>
+      <c r="H101" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!Without an Internet subscription</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J101" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K101" t="str">
+        <f t="shared" si="17"/>
+        <v>Without an Internet subscription</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" t="s">
+        <v>741</v>
+      </c>
+      <c r="B102" t="s">
+        <v>742</v>
+      </c>
+      <c r="C102" t="str">
+        <f t="shared" si="9"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D102" t="str">
+        <f t="shared" si="10"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E102" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent!!TYPE OF INTERNET SUBSCRIPTIONS!!Less than $20,000</v>
+      </c>
+      <c r="F102" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent!!</v>
+      </c>
+      <c r="G102" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent</v>
+      </c>
+      <c r="H102" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!Less than $20,000</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J102" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K102" t="str">
+        <f t="shared" si="17"/>
+        <v>Less than $20,000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" t="s">
+        <v>743</v>
+      </c>
+      <c r="B103" t="s">
+        <v>744</v>
+      </c>
+      <c r="C103" t="str">
+        <f t="shared" si="9"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D103" t="str">
+        <f t="shared" si="10"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E103" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!Less than $20,000</v>
+      </c>
+      <c r="F103" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent MOE!!</v>
+      </c>
+      <c r="G103" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent MOE</v>
+      </c>
+      <c r="H103" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!Less than $20,000</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J103" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K103" t="str">
+        <f t="shared" si="17"/>
+        <v>Less than $20,000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" t="s">
+        <v>745</v>
+      </c>
+      <c r="B104" t="s">
+        <v>746</v>
+      </c>
+      <c r="C104" t="str">
+        <f t="shared" si="9"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D104" t="str">
+        <f t="shared" si="10"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E104" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent!!TYPE OF INTERNET SUBSCRIPTIONS!!Less than $20,000!!With dial-up Internet subscription alone</v>
+      </c>
+      <c r="F104" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent!!</v>
+      </c>
+      <c r="G104" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent</v>
+      </c>
+      <c r="H104" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!Less than $20,000!!With dial-up Internet subscription alone</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J104" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K104" t="str">
+        <f t="shared" si="17"/>
+        <v>Less than $20,000!!With dial-up Internet subscription alone</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" t="s">
+        <v>747</v>
+      </c>
+      <c r="B105" t="s">
+        <v>748</v>
+      </c>
+      <c r="C105" t="str">
+        <f t="shared" si="9"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D105" t="str">
+        <f t="shared" si="10"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E105" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!Less than $20,000!!With dial-up Internet subscription alone</v>
+      </c>
+      <c r="F105" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent MOE!!</v>
+      </c>
+      <c r="G105" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent MOE</v>
+      </c>
+      <c r="H105" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!Less than $20,000!!With dial-up Internet subscription alone</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J105" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K105" t="str">
+        <f t="shared" si="17"/>
+        <v>Less than $20,000!!With dial-up Internet subscription alone</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" t="s">
+        <v>749</v>
+      </c>
+      <c r="B106" t="s">
+        <v>750</v>
+      </c>
+      <c r="C106" t="str">
+        <f t="shared" si="9"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D106" t="str">
+        <f t="shared" si="10"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E106" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent!!TYPE OF INTERNET SUBSCRIPTIONS!!Less than $20,000!!With a broadband Internet subscription</v>
+      </c>
+      <c r="F106" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent!!</v>
+      </c>
+      <c r="G106" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent</v>
+      </c>
+      <c r="H106" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!Less than $20,000!!With a broadband Internet subscription</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J106" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K106" t="str">
+        <f t="shared" si="17"/>
+        <v>Less than $20,000!!With a broadband Internet subscription</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" t="s">
+        <v>751</v>
+      </c>
+      <c r="B107" t="s">
+        <v>752</v>
+      </c>
+      <c r="C107" t="str">
+        <f t="shared" si="9"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D107" t="str">
+        <f t="shared" si="10"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E107" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!Less than $20,000!!With a broadband Internet subscription</v>
+      </c>
+      <c r="F107" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent MOE!!</v>
+      </c>
+      <c r="G107" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent MOE</v>
+      </c>
+      <c r="H107" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!Less than $20,000!!With a broadband Internet subscription</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J107" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K107" t="str">
+        <f t="shared" si="17"/>
+        <v>Less than $20,000!!With a broadband Internet subscription</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" t="s">
+        <v>753</v>
+      </c>
+      <c r="B108" t="s">
+        <v>754</v>
+      </c>
+      <c r="C108" t="str">
+        <f t="shared" si="9"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D108" t="str">
+        <f t="shared" si="10"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E108" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent!!TYPE OF INTERNET SUBSCRIPTIONS!!Less than $20,000!!Without an Internet subscription</v>
+      </c>
+      <c r="F108" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent!!</v>
+      </c>
+      <c r="G108" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent</v>
+      </c>
+      <c r="H108" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!Less than $20,000!!Without an Internet subscription</v>
+      </c>
+      <c r="I108" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J108" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K108" t="str">
+        <f t="shared" si="17"/>
+        <v>Less than $20,000!!Without an Internet subscription</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" t="s">
+        <v>755</v>
+      </c>
+      <c r="B109" t="s">
+        <v>756</v>
+      </c>
+      <c r="C109" t="str">
+        <f t="shared" si="9"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D109" t="str">
+        <f t="shared" si="10"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E109" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!Less than $20,000!!Without an Internet subscription</v>
+      </c>
+      <c r="F109" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent MOE!!</v>
+      </c>
+      <c r="G109" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent MOE</v>
+      </c>
+      <c r="H109" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!Less than $20,000!!Without an Internet subscription</v>
+      </c>
+      <c r="I109" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J109" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K109" t="str">
+        <f t="shared" si="17"/>
+        <v>Less than $20,000!!Without an Internet subscription</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" t="s">
+        <v>757</v>
+      </c>
+      <c r="B110" t="s">
+        <v>758</v>
+      </c>
+      <c r="C110" t="str">
+        <f t="shared" si="9"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D110" t="str">
+        <f t="shared" si="10"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E110" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent!!TYPE OF INTERNET SUBSCRIPTIONS!!$20,000 to $74,999</v>
+      </c>
+      <c r="F110" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent!!</v>
+      </c>
+      <c r="G110" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent</v>
+      </c>
+      <c r="H110" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!$20,000 to $74,999</v>
+      </c>
+      <c r="I110" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J110" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K110" t="str">
+        <f t="shared" si="17"/>
+        <v>$20,000 to $74,999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" t="s">
+        <v>759</v>
+      </c>
+      <c r="B111" t="s">
+        <v>760</v>
+      </c>
+      <c r="C111" t="str">
+        <f t="shared" si="9"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D111" t="str">
+        <f t="shared" si="10"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E111" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!$20,000 to $74,999</v>
+      </c>
+      <c r="F111" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent MOE!!</v>
+      </c>
+      <c r="G111" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent MOE</v>
+      </c>
+      <c r="H111" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!$20,000 to $74,999</v>
+      </c>
+      <c r="I111" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J111" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K111" t="str">
+        <f t="shared" si="17"/>
+        <v>$20,000 to $74,999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" t="s">
+        <v>761</v>
+      </c>
+      <c r="B112" t="s">
+        <v>762</v>
+      </c>
+      <c r="C112" t="str">
+        <f t="shared" si="9"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D112" t="str">
+        <f t="shared" si="10"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E112" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent!!TYPE OF INTERNET SUBSCRIPTIONS!!$20,000 to $74,999!!With dial-up Internet subscription alone</v>
+      </c>
+      <c r="F112" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent!!</v>
+      </c>
+      <c r="G112" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent</v>
+      </c>
+      <c r="H112" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!$20,000 to $74,999!!With dial-up Internet subscription alone</v>
+      </c>
+      <c r="I112" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J112" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K112" t="str">
+        <f t="shared" si="17"/>
+        <v>$20,000 to $74,999!!With dial-up Internet subscription alone</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" t="s">
+        <v>763</v>
+      </c>
+      <c r="B113" t="s">
+        <v>764</v>
+      </c>
+      <c r="C113" t="str">
+        <f t="shared" si="9"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D113" t="str">
+        <f t="shared" si="10"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E113" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!$20,000 to $74,999!!With dial-up Internet subscription alone</v>
+      </c>
+      <c r="F113" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent MOE!!</v>
+      </c>
+      <c r="G113" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent MOE</v>
+      </c>
+      <c r="H113" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!$20,000 to $74,999!!With dial-up Internet subscription alone</v>
+      </c>
+      <c r="I113" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J113" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K113" t="str">
+        <f t="shared" si="17"/>
+        <v>$20,000 to $74,999!!With dial-up Internet subscription alone</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" t="s">
+        <v>765</v>
+      </c>
+      <c r="B114" t="s">
+        <v>766</v>
+      </c>
+      <c r="C114" t="str">
+        <f t="shared" si="9"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D114" t="str">
+        <f t="shared" si="10"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E114" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent!!TYPE OF INTERNET SUBSCRIPTIONS!!$20,000 to $74,999!!With a broadband Internet subscription</v>
+      </c>
+      <c r="F114" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent!!</v>
+      </c>
+      <c r="G114" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent</v>
+      </c>
+      <c r="H114" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!$20,000 to $74,999!!With a broadband Internet subscription</v>
+      </c>
+      <c r="I114" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J114" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K114" t="str">
+        <f t="shared" si="17"/>
+        <v>$20,000 to $74,999!!With a broadband Internet subscription</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" t="s">
+        <v>767</v>
+      </c>
+      <c r="B115" t="s">
+        <v>768</v>
+      </c>
+      <c r="C115" t="str">
+        <f t="shared" si="9"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D115" t="str">
+        <f t="shared" si="10"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E115" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!$20,000 to $74,999!!With a broadband Internet subscription</v>
+      </c>
+      <c r="F115" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent MOE!!</v>
+      </c>
+      <c r="G115" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent MOE</v>
+      </c>
+      <c r="H115" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!$20,000 to $74,999!!With a broadband Internet subscription</v>
+      </c>
+      <c r="I115" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J115" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K115" t="str">
+        <f t="shared" si="17"/>
+        <v>$20,000 to $74,999!!With a broadband Internet subscription</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" t="s">
+        <v>769</v>
+      </c>
+      <c r="B116" t="s">
+        <v>770</v>
+      </c>
+      <c r="C116" t="str">
+        <f t="shared" si="9"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D116" t="str">
+        <f t="shared" si="10"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E116" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent!!TYPE OF INTERNET SUBSCRIPTIONS!!$20,000 to $74,999!!Without an Internet subscription</v>
+      </c>
+      <c r="F116" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent!!</v>
+      </c>
+      <c r="G116" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent</v>
+      </c>
+      <c r="H116" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!$20,000 to $74,999!!Without an Internet subscription</v>
+      </c>
+      <c r="I116" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J116" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K116" t="str">
+        <f t="shared" si="17"/>
+        <v>$20,000 to $74,999!!Without an Internet subscription</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" t="s">
+        <v>771</v>
+      </c>
+      <c r="B117" t="s">
+        <v>772</v>
+      </c>
+      <c r="C117" t="str">
+        <f t="shared" si="9"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D117" t="str">
+        <f t="shared" si="10"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E117" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!$20,000 to $74,999!!Without an Internet subscription</v>
+      </c>
+      <c r="F117" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent MOE!!</v>
+      </c>
+      <c r="G117" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent MOE</v>
+      </c>
+      <c r="H117" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!$20,000 to $74,999!!Without an Internet subscription</v>
+      </c>
+      <c r="I117" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J117" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K117" t="str">
+        <f t="shared" si="17"/>
+        <v>$20,000 to $74,999!!Without an Internet subscription</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" t="s">
+        <v>773</v>
+      </c>
+      <c r="B118" t="s">
+        <v>774</v>
+      </c>
+      <c r="C118" t="str">
+        <f t="shared" si="9"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D118" t="str">
+        <f t="shared" si="10"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E118" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent!!TYPE OF INTERNET SUBSCRIPTIONS!!$75,000 or more</v>
+      </c>
+      <c r="F118" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent!!</v>
+      </c>
+      <c r="G118" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent</v>
+      </c>
+      <c r="H118" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!$75,000 or more</v>
+      </c>
+      <c r="I118" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J118" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K118" t="str">
+        <f t="shared" si="17"/>
+        <v>$75,000 or more</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" t="s">
+        <v>775</v>
+      </c>
+      <c r="B119" t="s">
+        <v>776</v>
+      </c>
+      <c r="C119" t="str">
+        <f t="shared" si="9"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D119" t="str">
+        <f t="shared" si="10"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E119" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!$75,000 or more</v>
+      </c>
+      <c r="F119" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent MOE!!</v>
+      </c>
+      <c r="G119" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent MOE</v>
+      </c>
+      <c r="H119" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!$75,000 or more</v>
+      </c>
+      <c r="I119" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J119" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K119" t="str">
+        <f t="shared" si="17"/>
+        <v>$75,000 or more</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" t="s">
+        <v>777</v>
+      </c>
+      <c r="B120" t="s">
+        <v>778</v>
+      </c>
+      <c r="C120" t="str">
+        <f t="shared" si="9"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D120" t="str">
+        <f t="shared" si="10"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E120" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent!!TYPE OF INTERNET SUBSCRIPTIONS!!$75,000 or more!!With dial-up Internet subscription alone</v>
+      </c>
+      <c r="F120" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent!!</v>
+      </c>
+      <c r="G120" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent</v>
+      </c>
+      <c r="H120" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!$75,000 or more!!With dial-up Internet subscription alone</v>
+      </c>
+      <c r="I120" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J120" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K120" t="str">
+        <f t="shared" si="17"/>
+        <v>$75,000 or more!!With dial-up Internet subscription alone</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" t="s">
+        <v>779</v>
+      </c>
+      <c r="B121" t="s">
+        <v>780</v>
+      </c>
+      <c r="C121" t="str">
+        <f t="shared" si="9"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D121" t="str">
+        <f t="shared" si="10"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E121" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!$75,000 or more!!With dial-up Internet subscription alone</v>
+      </c>
+      <c r="F121" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent MOE!!</v>
+      </c>
+      <c r="G121" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent MOE</v>
+      </c>
+      <c r="H121" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!$75,000 or more!!With dial-up Internet subscription alone</v>
+      </c>
+      <c r="I121" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J121" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K121" t="str">
+        <f t="shared" si="17"/>
+        <v>$75,000 or more!!With dial-up Internet subscription alone</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" t="s">
+        <v>781</v>
+      </c>
+      <c r="B122" t="s">
+        <v>782</v>
+      </c>
+      <c r="C122" t="str">
+        <f t="shared" si="9"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D122" t="str">
+        <f t="shared" si="10"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E122" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent!!TYPE OF INTERNET SUBSCRIPTIONS!!$75,000 or more!!With a broadband Internet subscription</v>
+      </c>
+      <c r="F122" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent!!</v>
+      </c>
+      <c r="G122" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent</v>
+      </c>
+      <c r="H122" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!$75,000 or more!!With a broadband Internet subscription</v>
+      </c>
+      <c r="I122" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J122" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K122" t="str">
+        <f t="shared" si="17"/>
+        <v>$75,000 or more!!With a broadband Internet subscription</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" t="s">
+        <v>783</v>
+      </c>
+      <c r="B123" t="s">
+        <v>784</v>
+      </c>
+      <c r="C123" t="str">
+        <f t="shared" si="9"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D123" t="str">
+        <f t="shared" si="10"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E123" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!$75,000 or more!!With a broadband Internet subscription</v>
+      </c>
+      <c r="F123" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent MOE!!</v>
+      </c>
+      <c r="G123" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent MOE</v>
+      </c>
+      <c r="H123" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!$75,000 or more!!With a broadband Internet subscription</v>
+      </c>
+      <c r="I123" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J123" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K123" t="str">
+        <f t="shared" si="17"/>
+        <v>$75,000 or more!!With a broadband Internet subscription</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" t="s">
+        <v>785</v>
+      </c>
+      <c r="B124" t="s">
+        <v>786</v>
+      </c>
+      <c r="C124" t="str">
+        <f t="shared" si="9"/>
+        <v>Estimate!!</v>
+      </c>
+      <c r="D124" t="str">
+        <f t="shared" si="10"/>
+        <v>Estimate</v>
+      </c>
+      <c r="E124" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent!!TYPE OF INTERNET SUBSCRIPTIONS!!$75,000 or more!!Without an Internet subscription</v>
+      </c>
+      <c r="F124" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent!!</v>
+      </c>
+      <c r="G124" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent</v>
+      </c>
+      <c r="H124" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!$75,000 or more!!Without an Internet subscription</v>
+      </c>
+      <c r="I124" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J124" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K124" t="str">
+        <f t="shared" si="17"/>
+        <v>$75,000 or more!!Without an Internet subscription</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" t="s">
+        <v>787</v>
+      </c>
+      <c r="B125" t="s">
+        <v>788</v>
+      </c>
+      <c r="C125" t="str">
+        <f t="shared" si="9"/>
+        <v>Margin of Error!!</v>
+      </c>
+      <c r="D125" t="str">
+        <f t="shared" si="10"/>
+        <v>Margin of Error</v>
+      </c>
+      <c r="E125" t="str">
+        <f t="shared" si="11"/>
+        <v>Percent MOE!!TYPE OF INTERNET SUBSCRIPTIONS!!$75,000 or more!!Without an Internet subscription</v>
+      </c>
+      <c r="F125" t="str">
+        <f t="shared" si="12"/>
+        <v>Percent MOE!!</v>
+      </c>
+      <c r="G125" t="str">
+        <f t="shared" si="13"/>
+        <v>Percent MOE</v>
+      </c>
+      <c r="H125" t="str">
+        <f t="shared" si="14"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!$75,000 or more!!Without an Internet subscription</v>
+      </c>
+      <c r="I125" t="str">
+        <f t="shared" si="15"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS!!</v>
+      </c>
+      <c r="J125" t="str">
+        <f t="shared" si="16"/>
+        <v>TYPE OF INTERNET SUBSCRIPTIONS</v>
+      </c>
+      <c r="K125" t="str">
+        <f t="shared" si="17"/>
+        <v>$75,000 or more!!Without an Internet subscription</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F125"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" t="s">
+        <v>790</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F2" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>543</v>
+      </c>
+      <c r="B3" t="s">
+        <v>789</v>
+      </c>
+      <c r="C3" t="s">
+        <v>791</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F3" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>545</v>
+      </c>
+      <c r="B4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C4" t="s">
+        <v>790</v>
+      </c>
+      <c r="D4" t="s">
+        <v>794</v>
+      </c>
+      <c r="E4" t="s">
+        <v>824</v>
+      </c>
+      <c r="F4" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>547</v>
+      </c>
+      <c r="B5" t="s">
+        <v>789</v>
+      </c>
+      <c r="C5" t="s">
+        <v>791</v>
+      </c>
+      <c r="D5" t="s">
+        <v>794</v>
+      </c>
+      <c r="E5" t="s">
+        <v>824</v>
+      </c>
+      <c r="F5" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>549</v>
+      </c>
+      <c r="B6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C6" t="s">
+        <v>790</v>
+      </c>
+      <c r="D6" t="s">
+        <v>795</v>
+      </c>
+      <c r="E6" t="s">
+        <v>824</v>
+      </c>
+      <c r="F6" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>551</v>
+      </c>
+      <c r="B7" t="s">
+        <v>789</v>
+      </c>
+      <c r="C7" t="s">
+        <v>791</v>
+      </c>
+      <c r="D7" t="s">
+        <v>795</v>
+      </c>
+      <c r="E7" t="s">
+        <v>824</v>
+      </c>
+      <c r="F7" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>553</v>
+      </c>
+      <c r="B8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C8" t="s">
+        <v>790</v>
+      </c>
+      <c r="D8" t="s">
+        <v>796</v>
+      </c>
+      <c r="E8" t="s">
+        <v>824</v>
+      </c>
+      <c r="F8" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>555</v>
+      </c>
+      <c r="B9" t="s">
+        <v>789</v>
+      </c>
+      <c r="C9" t="s">
+        <v>791</v>
+      </c>
+      <c r="D9" t="s">
+        <v>796</v>
+      </c>
+      <c r="E9" t="s">
+        <v>824</v>
+      </c>
+      <c r="F9" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>557</v>
+      </c>
+      <c r="B10" t="s">
+        <v>285</v>
+      </c>
+      <c r="C10" t="s">
+        <v>790</v>
+      </c>
+      <c r="D10" t="s">
+        <v>797</v>
+      </c>
+      <c r="E10" t="s">
+        <v>824</v>
+      </c>
+      <c r="F10" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>559</v>
+      </c>
+      <c r="B11" t="s">
+        <v>789</v>
+      </c>
+      <c r="C11" t="s">
+        <v>791</v>
+      </c>
+      <c r="D11" t="s">
+        <v>797</v>
+      </c>
+      <c r="E11" t="s">
+        <v>824</v>
+      </c>
+      <c r="F11" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>561</v>
+      </c>
+      <c r="B12" t="s">
+        <v>285</v>
+      </c>
+      <c r="C12" t="s">
+        <v>790</v>
+      </c>
+      <c r="D12" t="s">
+        <v>798</v>
+      </c>
+      <c r="E12" t="s">
+        <v>824</v>
+      </c>
+      <c r="F12" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>563</v>
+      </c>
+      <c r="B13" t="s">
+        <v>789</v>
+      </c>
+      <c r="C13" t="s">
+        <v>791</v>
+      </c>
+      <c r="D13" t="s">
+        <v>798</v>
+      </c>
+      <c r="E13" t="s">
+        <v>824</v>
+      </c>
+      <c r="F13" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>565</v>
+      </c>
+      <c r="B14" t="s">
+        <v>285</v>
+      </c>
+      <c r="C14" t="s">
+        <v>790</v>
+      </c>
+      <c r="D14" t="s">
+        <v>799</v>
+      </c>
+      <c r="E14" t="s">
+        <v>824</v>
+      </c>
+      <c r="F14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>567</v>
+      </c>
+      <c r="B15" t="s">
+        <v>789</v>
+      </c>
+      <c r="C15" t="s">
+        <v>791</v>
+      </c>
+      <c r="D15" t="s">
+        <v>799</v>
+      </c>
+      <c r="E15" t="s">
+        <v>824</v>
+      </c>
+      <c r="F15" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>569</v>
+      </c>
+      <c r="B16" t="s">
+        <v>285</v>
+      </c>
+      <c r="C16" t="s">
+        <v>790</v>
+      </c>
+      <c r="D16" t="s">
+        <v>800</v>
+      </c>
+      <c r="E16" t="s">
+        <v>824</v>
+      </c>
+      <c r="F16" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>571</v>
+      </c>
+      <c r="B17" t="s">
+        <v>789</v>
+      </c>
+      <c r="C17" t="s">
+        <v>791</v>
+      </c>
+      <c r="D17" t="s">
+        <v>800</v>
+      </c>
+      <c r="E17" t="s">
+        <v>824</v>
+      </c>
+      <c r="F17" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>573</v>
+      </c>
+      <c r="B18" t="s">
+        <v>285</v>
+      </c>
+      <c r="C18" t="s">
+        <v>790</v>
+      </c>
+      <c r="D18" t="s">
+        <v>801</v>
+      </c>
+      <c r="E18" t="s">
+        <v>824</v>
+      </c>
+      <c r="F18" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>575</v>
+      </c>
+      <c r="B19" t="s">
+        <v>789</v>
+      </c>
+      <c r="C19" t="s">
+        <v>791</v>
+      </c>
+      <c r="D19" t="s">
+        <v>801</v>
+      </c>
+      <c r="E19" t="s">
+        <v>824</v>
+      </c>
+      <c r="F19" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>577</v>
+      </c>
+      <c r="B20" t="s">
+        <v>285</v>
+      </c>
+      <c r="C20" t="s">
+        <v>790</v>
+      </c>
+      <c r="D20" t="s">
+        <v>802</v>
+      </c>
+      <c r="E20" t="s">
+        <v>824</v>
+      </c>
+      <c r="F20" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>579</v>
+      </c>
+      <c r="B21" t="s">
+        <v>789</v>
+      </c>
+      <c r="C21" t="s">
+        <v>791</v>
+      </c>
+      <c r="D21" t="s">
+        <v>802</v>
+      </c>
+      <c r="E21" t="s">
+        <v>824</v>
+      </c>
+      <c r="F21" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>581</v>
+      </c>
+      <c r="B22" t="s">
+        <v>285</v>
+      </c>
+      <c r="C22" t="s">
+        <v>790</v>
+      </c>
+      <c r="D22" t="s">
+        <v>803</v>
+      </c>
+      <c r="E22" t="s">
+        <v>824</v>
+      </c>
+      <c r="F22" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>583</v>
+      </c>
+      <c r="B23" t="s">
+        <v>789</v>
+      </c>
+      <c r="C23" t="s">
+        <v>791</v>
+      </c>
+      <c r="D23" t="s">
+        <v>803</v>
+      </c>
+      <c r="E23" t="s">
+        <v>824</v>
+      </c>
+      <c r="F23" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>585</v>
+      </c>
+      <c r="B24" t="s">
+        <v>285</v>
+      </c>
+      <c r="C24" t="s">
+        <v>790</v>
+      </c>
+      <c r="D24" t="s">
+        <v>804</v>
+      </c>
+      <c r="E24" t="s">
+        <v>825</v>
+      </c>
+      <c r="F24" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>587</v>
+      </c>
+      <c r="B25" t="s">
+        <v>789</v>
+      </c>
+      <c r="C25" t="s">
+        <v>791</v>
+      </c>
+      <c r="D25" t="s">
+        <v>804</v>
+      </c>
+      <c r="E25" t="s">
+        <v>825</v>
+      </c>
+      <c r="F25" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>589</v>
+      </c>
+      <c r="B26" t="s">
+        <v>285</v>
+      </c>
+      <c r="C26" t="s">
+        <v>790</v>
+      </c>
+      <c r="D26" t="s">
+        <v>805</v>
+      </c>
+      <c r="E26" t="s">
+        <v>825</v>
+      </c>
+      <c r="F26" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>591</v>
+      </c>
+      <c r="B27" t="s">
+        <v>789</v>
+      </c>
+      <c r="C27" t="s">
+        <v>791</v>
+      </c>
+      <c r="D27" t="s">
+        <v>805</v>
+      </c>
+      <c r="E27" t="s">
+        <v>825</v>
+      </c>
+      <c r="F27" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>593</v>
+      </c>
+      <c r="B28" t="s">
+        <v>285</v>
+      </c>
+      <c r="C28" t="s">
+        <v>790</v>
+      </c>
+      <c r="D28" t="s">
+        <v>806</v>
+      </c>
+      <c r="E28" t="s">
+        <v>825</v>
+      </c>
+      <c r="F28" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>595</v>
+      </c>
+      <c r="B29" t="s">
+        <v>789</v>
+      </c>
+      <c r="C29" t="s">
+        <v>791</v>
+      </c>
+      <c r="D29" t="s">
+        <v>806</v>
+      </c>
+      <c r="E29" t="s">
+        <v>825</v>
+      </c>
+      <c r="F29" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>597</v>
+      </c>
+      <c r="B30" t="s">
+        <v>285</v>
+      </c>
+      <c r="C30" t="s">
+        <v>790</v>
+      </c>
+      <c r="D30" t="s">
+        <v>807</v>
+      </c>
+      <c r="E30" t="s">
+        <v>825</v>
+      </c>
+      <c r="F30" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>599</v>
+      </c>
+      <c r="B31" t="s">
+        <v>789</v>
+      </c>
+      <c r="C31" t="s">
+        <v>791</v>
+      </c>
+      <c r="D31" t="s">
+        <v>807</v>
+      </c>
+      <c r="E31" t="s">
+        <v>825</v>
+      </c>
+      <c r="F31" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>601</v>
+      </c>
+      <c r="B32" t="s">
+        <v>285</v>
+      </c>
+      <c r="C32" t="s">
+        <v>790</v>
+      </c>
+      <c r="D32" t="s">
+        <v>808</v>
+      </c>
+      <c r="E32" t="s">
+        <v>825</v>
+      </c>
+      <c r="F32" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>603</v>
+      </c>
+      <c r="B33" t="s">
+        <v>789</v>
+      </c>
+      <c r="C33" t="s">
+        <v>791</v>
+      </c>
+      <c r="D33" t="s">
+        <v>808</v>
+      </c>
+      <c r="E33" t="s">
+        <v>825</v>
+      </c>
+      <c r="F33" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>605</v>
+      </c>
+      <c r="B34" t="s">
+        <v>285</v>
+      </c>
+      <c r="C34" t="s">
+        <v>790</v>
+      </c>
+      <c r="D34" t="s">
+        <v>809</v>
+      </c>
+      <c r="E34" t="s">
+        <v>825</v>
+      </c>
+      <c r="F34" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>607</v>
+      </c>
+      <c r="B35" t="s">
+        <v>789</v>
+      </c>
+      <c r="C35" t="s">
+        <v>791</v>
+      </c>
+      <c r="D35" t="s">
+        <v>809</v>
+      </c>
+      <c r="E35" t="s">
+        <v>825</v>
+      </c>
+      <c r="F35" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>609</v>
+      </c>
+      <c r="B36" t="s">
+        <v>285</v>
+      </c>
+      <c r="C36" t="s">
+        <v>790</v>
+      </c>
+      <c r="D36" t="s">
+        <v>810</v>
+      </c>
+      <c r="E36" t="s">
+        <v>825</v>
+      </c>
+      <c r="F36" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>611</v>
+      </c>
+      <c r="B37" t="s">
+        <v>789</v>
+      </c>
+      <c r="C37" t="s">
+        <v>791</v>
+      </c>
+      <c r="D37" t="s">
+        <v>810</v>
+      </c>
+      <c r="E37" t="s">
+        <v>825</v>
+      </c>
+      <c r="F37" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>613</v>
+      </c>
+      <c r="B38" t="s">
+        <v>285</v>
+      </c>
+      <c r="C38" t="s">
+        <v>790</v>
+      </c>
+      <c r="D38" t="s">
+        <v>811</v>
+      </c>
+      <c r="E38" t="s">
+        <v>825</v>
+      </c>
+      <c r="F38" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>615</v>
+      </c>
+      <c r="B39" t="s">
+        <v>789</v>
+      </c>
+      <c r="C39" t="s">
+        <v>791</v>
+      </c>
+      <c r="D39" t="s">
+        <v>811</v>
+      </c>
+      <c r="E39" t="s">
+        <v>825</v>
+      </c>
+      <c r="F39" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>617</v>
+      </c>
+      <c r="B40" t="s">
+        <v>285</v>
+      </c>
+      <c r="C40" t="s">
+        <v>790</v>
+      </c>
+      <c r="D40" t="s">
+        <v>812</v>
+      </c>
+      <c r="E40" t="s">
+        <v>825</v>
+      </c>
+      <c r="F40" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>619</v>
+      </c>
+      <c r="B41" t="s">
+        <v>789</v>
+      </c>
+      <c r="C41" t="s">
+        <v>791</v>
+      </c>
+      <c r="D41" t="s">
+        <v>812</v>
+      </c>
+      <c r="E41" t="s">
+        <v>825</v>
+      </c>
+      <c r="F41" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>621</v>
+      </c>
+      <c r="B42" t="s">
+        <v>285</v>
+      </c>
+      <c r="C42" t="s">
+        <v>790</v>
+      </c>
+      <c r="D42" t="s">
+        <v>813</v>
+      </c>
+      <c r="E42" t="s">
+        <v>825</v>
+      </c>
+      <c r="F42" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>623</v>
+      </c>
+      <c r="B43" t="s">
+        <v>789</v>
+      </c>
+      <c r="C43" t="s">
+        <v>791</v>
+      </c>
+      <c r="D43" t="s">
+        <v>813</v>
+      </c>
+      <c r="E43" t="s">
+        <v>825</v>
+      </c>
+      <c r="F43" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>625</v>
+      </c>
+      <c r="B44" t="s">
+        <v>285</v>
+      </c>
+      <c r="C44" t="s">
+        <v>790</v>
+      </c>
+      <c r="D44" t="s">
+        <v>814</v>
+      </c>
+      <c r="E44" t="s">
+        <v>825</v>
+      </c>
+      <c r="F44" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>627</v>
+      </c>
+      <c r="B45" t="s">
+        <v>789</v>
+      </c>
+      <c r="C45" t="s">
+        <v>791</v>
+      </c>
+      <c r="D45" t="s">
+        <v>814</v>
+      </c>
+      <c r="E45" t="s">
+        <v>825</v>
+      </c>
+      <c r="F45" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>629</v>
+      </c>
+      <c r="B46" t="s">
+        <v>285</v>
+      </c>
+      <c r="C46" t="s">
+        <v>790</v>
+      </c>
+      <c r="D46" t="s">
+        <v>815</v>
+      </c>
+      <c r="E46" t="s">
+        <v>825</v>
+      </c>
+      <c r="F46" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>631</v>
+      </c>
+      <c r="B47" t="s">
+        <v>789</v>
+      </c>
+      <c r="C47" t="s">
+        <v>791</v>
+      </c>
+      <c r="D47" t="s">
+        <v>815</v>
+      </c>
+      <c r="E47" t="s">
+        <v>825</v>
+      </c>
+      <c r="F47" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>633</v>
+      </c>
+      <c r="B48" t="s">
+        <v>285</v>
+      </c>
+      <c r="C48" t="s">
+        <v>790</v>
+      </c>
+      <c r="D48" t="s">
+        <v>816</v>
+      </c>
+      <c r="E48" t="s">
+        <v>825</v>
+      </c>
+      <c r="F48" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>635</v>
+      </c>
+      <c r="B49" t="s">
+        <v>789</v>
+      </c>
+      <c r="C49" t="s">
+        <v>791</v>
+      </c>
+      <c r="D49" t="s">
+        <v>816</v>
+      </c>
+      <c r="E49" t="s">
+        <v>825</v>
+      </c>
+      <c r="F49" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>637</v>
+      </c>
+      <c r="B50" t="s">
+        <v>285</v>
+      </c>
+      <c r="C50" t="s">
+        <v>790</v>
+      </c>
+      <c r="D50" t="s">
+        <v>817</v>
+      </c>
+      <c r="E50" t="s">
+        <v>825</v>
+      </c>
+      <c r="F50" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>639</v>
+      </c>
+      <c r="B51" t="s">
+        <v>789</v>
+      </c>
+      <c r="C51" t="s">
+        <v>791</v>
+      </c>
+      <c r="D51" t="s">
+        <v>817</v>
+      </c>
+      <c r="E51" t="s">
+        <v>825</v>
+      </c>
+      <c r="F51" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>641</v>
+      </c>
+      <c r="B52" t="s">
+        <v>285</v>
+      </c>
+      <c r="C52" t="s">
+        <v>790</v>
+      </c>
+      <c r="D52" t="s">
+        <v>818</v>
+      </c>
+      <c r="E52" t="s">
+        <v>825</v>
+      </c>
+      <c r="F52" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>643</v>
+      </c>
+      <c r="B53" t="s">
+        <v>789</v>
+      </c>
+      <c r="C53" t="s">
+        <v>791</v>
+      </c>
+      <c r="D53" t="s">
+        <v>818</v>
+      </c>
+      <c r="E53" t="s">
+        <v>825</v>
+      </c>
+      <c r="F53" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>645</v>
+      </c>
+      <c r="B54" t="s">
+        <v>285</v>
+      </c>
+      <c r="C54" t="s">
+        <v>790</v>
+      </c>
+      <c r="D54" t="s">
+        <v>819</v>
+      </c>
+      <c r="E54" t="s">
+        <v>825</v>
+      </c>
+      <c r="F54" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>647</v>
+      </c>
+      <c r="B55" t="s">
+        <v>789</v>
+      </c>
+      <c r="C55" t="s">
+        <v>791</v>
+      </c>
+      <c r="D55" t="s">
+        <v>819</v>
+      </c>
+      <c r="E55" t="s">
+        <v>825</v>
+      </c>
+      <c r="F55" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>649</v>
+      </c>
+      <c r="B56" t="s">
+        <v>285</v>
+      </c>
+      <c r="C56" t="s">
+        <v>790</v>
+      </c>
+      <c r="D56" t="s">
+        <v>820</v>
+      </c>
+      <c r="E56" t="s">
+        <v>825</v>
+      </c>
+      <c r="F56" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>651</v>
+      </c>
+      <c r="B57" t="s">
+        <v>789</v>
+      </c>
+      <c r="C57" t="s">
+        <v>791</v>
+      </c>
+      <c r="D57" t="s">
+        <v>820</v>
+      </c>
+      <c r="E57" t="s">
+        <v>825</v>
+      </c>
+      <c r="F57" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>653</v>
+      </c>
+      <c r="B58" t="s">
+        <v>285</v>
+      </c>
+      <c r="C58" t="s">
+        <v>790</v>
+      </c>
+      <c r="D58" t="s">
+        <v>821</v>
+      </c>
+      <c r="E58" t="s">
+        <v>825</v>
+      </c>
+      <c r="F58" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>655</v>
+      </c>
+      <c r="B59" t="s">
+        <v>789</v>
+      </c>
+      <c r="C59" t="s">
+        <v>791</v>
+      </c>
+      <c r="D59" t="s">
+        <v>821</v>
+      </c>
+      <c r="E59" t="s">
+        <v>825</v>
+      </c>
+      <c r="F59" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>657</v>
+      </c>
+      <c r="B60" t="s">
+        <v>285</v>
+      </c>
+      <c r="C60" t="s">
+        <v>790</v>
+      </c>
+      <c r="D60" t="s">
+        <v>822</v>
+      </c>
+      <c r="E60" t="s">
+        <v>825</v>
+      </c>
+      <c r="F60" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>659</v>
+      </c>
+      <c r="B61" t="s">
+        <v>789</v>
+      </c>
+      <c r="C61" t="s">
+        <v>791</v>
+      </c>
+      <c r="D61" t="s">
+        <v>822</v>
+      </c>
+      <c r="E61" t="s">
+        <v>825</v>
+      </c>
+      <c r="F61" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>661</v>
+      </c>
+      <c r="B62" t="s">
+        <v>285</v>
+      </c>
+      <c r="C62" t="s">
+        <v>790</v>
+      </c>
+      <c r="D62" t="s">
+        <v>823</v>
+      </c>
+      <c r="E62" t="s">
+        <v>825</v>
+      </c>
+      <c r="F62" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>663</v>
+      </c>
+      <c r="B63" t="s">
+        <v>789</v>
+      </c>
+      <c r="C63" t="s">
+        <v>791</v>
+      </c>
+      <c r="D63" t="s">
+        <v>823</v>
+      </c>
+      <c r="E63" t="s">
+        <v>825</v>
+      </c>
+      <c r="F63" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>665</v>
+      </c>
+      <c r="B64" t="s">
+        <v>285</v>
+      </c>
+      <c r="C64" t="s">
+        <v>792</v>
+      </c>
+      <c r="D64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F64" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>667</v>
+      </c>
+      <c r="B65" t="s">
+        <v>789</v>
+      </c>
+      <c r="C65" t="s">
+        <v>793</v>
+      </c>
+      <c r="D65" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F65" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>669</v>
+      </c>
+      <c r="B66" t="s">
+        <v>285</v>
+      </c>
+      <c r="C66" t="s">
+        <v>792</v>
+      </c>
+      <c r="D66" t="s">
+        <v>794</v>
+      </c>
+      <c r="E66" t="s">
+        <v>824</v>
+      </c>
+      <c r="F66" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>671</v>
+      </c>
+      <c r="B67" t="s">
+        <v>789</v>
+      </c>
+      <c r="C67" t="s">
+        <v>793</v>
+      </c>
+      <c r="D67" t="s">
+        <v>794</v>
+      </c>
+      <c r="E67" t="s">
+        <v>824</v>
+      </c>
+      <c r="F67" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>673</v>
+      </c>
+      <c r="B68" t="s">
+        <v>285</v>
+      </c>
+      <c r="C68" t="s">
+        <v>792</v>
+      </c>
+      <c r="D68" t="s">
+        <v>795</v>
+      </c>
+      <c r="E68" t="s">
+        <v>824</v>
+      </c>
+      <c r="F68" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>675</v>
+      </c>
+      <c r="B69" t="s">
+        <v>789</v>
+      </c>
+      <c r="C69" t="s">
+        <v>793</v>
+      </c>
+      <c r="D69" t="s">
+        <v>795</v>
+      </c>
+      <c r="E69" t="s">
+        <v>824</v>
+      </c>
+      <c r="F69" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>677</v>
+      </c>
+      <c r="B70" t="s">
+        <v>285</v>
+      </c>
+      <c r="C70" t="s">
+        <v>792</v>
+      </c>
+      <c r="D70" t="s">
+        <v>796</v>
+      </c>
+      <c r="E70" t="s">
+        <v>824</v>
+      </c>
+      <c r="F70" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>679</v>
+      </c>
+      <c r="B71" t="s">
+        <v>789</v>
+      </c>
+      <c r="C71" t="s">
+        <v>793</v>
+      </c>
+      <c r="D71" t="s">
+        <v>796</v>
+      </c>
+      <c r="E71" t="s">
+        <v>824</v>
+      </c>
+      <c r="F71" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>681</v>
+      </c>
+      <c r="B72" t="s">
+        <v>285</v>
+      </c>
+      <c r="C72" t="s">
+        <v>792</v>
+      </c>
+      <c r="D72" t="s">
+        <v>797</v>
+      </c>
+      <c r="E72" t="s">
+        <v>824</v>
+      </c>
+      <c r="F72" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>683</v>
+      </c>
+      <c r="B73" t="s">
+        <v>789</v>
+      </c>
+      <c r="C73" t="s">
+        <v>793</v>
+      </c>
+      <c r="D73" t="s">
+        <v>797</v>
+      </c>
+      <c r="E73" t="s">
+        <v>824</v>
+      </c>
+      <c r="F73" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>685</v>
+      </c>
+      <c r="B74" t="s">
+        <v>285</v>
+      </c>
+      <c r="C74" t="s">
+        <v>792</v>
+      </c>
+      <c r="D74" t="s">
+        <v>798</v>
+      </c>
+      <c r="E74" t="s">
+        <v>824</v>
+      </c>
+      <c r="F74" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>687</v>
+      </c>
+      <c r="B75" t="s">
+        <v>789</v>
+      </c>
+      <c r="C75" t="s">
+        <v>793</v>
+      </c>
+      <c r="D75" t="s">
+        <v>798</v>
+      </c>
+      <c r="E75" t="s">
+        <v>824</v>
+      </c>
+      <c r="F75" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>689</v>
+      </c>
+      <c r="B76" t="s">
+        <v>285</v>
+      </c>
+      <c r="C76" t="s">
+        <v>792</v>
+      </c>
+      <c r="D76" t="s">
+        <v>799</v>
+      </c>
+      <c r="E76" t="s">
+        <v>824</v>
+      </c>
+      <c r="F76" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>691</v>
+      </c>
+      <c r="B77" t="s">
+        <v>789</v>
+      </c>
+      <c r="C77" t="s">
+        <v>793</v>
+      </c>
+      <c r="D77" t="s">
+        <v>799</v>
+      </c>
+      <c r="E77" t="s">
+        <v>824</v>
+      </c>
+      <c r="F77" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>693</v>
+      </c>
+      <c r="B78" t="s">
+        <v>285</v>
+      </c>
+      <c r="C78" t="s">
+        <v>792</v>
+      </c>
+      <c r="D78" t="s">
+        <v>800</v>
+      </c>
+      <c r="E78" t="s">
+        <v>824</v>
+      </c>
+      <c r="F78" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>695</v>
+      </c>
+      <c r="B79" t="s">
+        <v>789</v>
+      </c>
+      <c r="C79" t="s">
+        <v>793</v>
+      </c>
+      <c r="D79" t="s">
+        <v>800</v>
+      </c>
+      <c r="E79" t="s">
+        <v>824</v>
+      </c>
+      <c r="F79" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>697</v>
+      </c>
+      <c r="B80" t="s">
+        <v>285</v>
+      </c>
+      <c r="C80" t="s">
+        <v>792</v>
+      </c>
+      <c r="D80" t="s">
+        <v>801</v>
+      </c>
+      <c r="E80" t="s">
+        <v>824</v>
+      </c>
+      <c r="F80" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>699</v>
+      </c>
+      <c r="B81" t="s">
+        <v>789</v>
+      </c>
+      <c r="C81" t="s">
+        <v>793</v>
+      </c>
+      <c r="D81" t="s">
+        <v>801</v>
+      </c>
+      <c r="E81" t="s">
+        <v>824</v>
+      </c>
+      <c r="F81" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>701</v>
+      </c>
+      <c r="B82" t="s">
+        <v>285</v>
+      </c>
+      <c r="C82" t="s">
+        <v>792</v>
+      </c>
+      <c r="D82" t="s">
+        <v>802</v>
+      </c>
+      <c r="E82" t="s">
+        <v>824</v>
+      </c>
+      <c r="F82" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>703</v>
+      </c>
+      <c r="B83" t="s">
+        <v>789</v>
+      </c>
+      <c r="C83" t="s">
+        <v>793</v>
+      </c>
+      <c r="D83" t="s">
+        <v>802</v>
+      </c>
+      <c r="E83" t="s">
+        <v>824</v>
+      </c>
+      <c r="F83" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>705</v>
+      </c>
+      <c r="B84" t="s">
+        <v>285</v>
+      </c>
+      <c r="C84" t="s">
+        <v>792</v>
+      </c>
+      <c r="D84" t="s">
+        <v>803</v>
+      </c>
+      <c r="E84" t="s">
+        <v>824</v>
+      </c>
+      <c r="F84" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>707</v>
+      </c>
+      <c r="B85" t="s">
+        <v>789</v>
+      </c>
+      <c r="C85" t="s">
+        <v>793</v>
+      </c>
+      <c r="D85" t="s">
+        <v>803</v>
+      </c>
+      <c r="E85" t="s">
+        <v>824</v>
+      </c>
+      <c r="F85" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>709</v>
+      </c>
+      <c r="B86" t="s">
+        <v>285</v>
+      </c>
+      <c r="C86" t="s">
+        <v>792</v>
+      </c>
+      <c r="D86" t="s">
+        <v>804</v>
+      </c>
+      <c r="E86" t="s">
+        <v>825</v>
+      </c>
+      <c r="F86" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>711</v>
+      </c>
+      <c r="B87" t="s">
+        <v>789</v>
+      </c>
+      <c r="C87" t="s">
+        <v>793</v>
+      </c>
+      <c r="D87" t="s">
+        <v>804</v>
+      </c>
+      <c r="E87" t="s">
+        <v>825</v>
+      </c>
+      <c r="F87" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>713</v>
+      </c>
+      <c r="B88" t="s">
+        <v>285</v>
+      </c>
+      <c r="C88" t="s">
+        <v>792</v>
+      </c>
+      <c r="D88" t="s">
+        <v>805</v>
+      </c>
+      <c r="E88" t="s">
+        <v>825</v>
+      </c>
+      <c r="F88" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>715</v>
+      </c>
+      <c r="B89" t="s">
+        <v>789</v>
+      </c>
+      <c r="C89" t="s">
+        <v>793</v>
+      </c>
+      <c r="D89" t="s">
+        <v>805</v>
+      </c>
+      <c r="E89" t="s">
+        <v>825</v>
+      </c>
+      <c r="F89" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>717</v>
+      </c>
+      <c r="B90" t="s">
+        <v>285</v>
+      </c>
+      <c r="C90" t="s">
+        <v>792</v>
+      </c>
+      <c r="D90" t="s">
+        <v>806</v>
+      </c>
+      <c r="E90" t="s">
+        <v>825</v>
+      </c>
+      <c r="F90" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>719</v>
+      </c>
+      <c r="B91" t="s">
+        <v>789</v>
+      </c>
+      <c r="C91" t="s">
+        <v>793</v>
+      </c>
+      <c r="D91" t="s">
+        <v>806</v>
+      </c>
+      <c r="E91" t="s">
+        <v>825</v>
+      </c>
+      <c r="F91" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>721</v>
+      </c>
+      <c r="B92" t="s">
+        <v>285</v>
+      </c>
+      <c r="C92" t="s">
+        <v>792</v>
+      </c>
+      <c r="D92" t="s">
+        <v>807</v>
+      </c>
+      <c r="E92" t="s">
+        <v>825</v>
+      </c>
+      <c r="F92" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>723</v>
+      </c>
+      <c r="B93" t="s">
+        <v>789</v>
+      </c>
+      <c r="C93" t="s">
+        <v>793</v>
+      </c>
+      <c r="D93" t="s">
+        <v>807</v>
+      </c>
+      <c r="E93" t="s">
+        <v>825</v>
+      </c>
+      <c r="F93" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>725</v>
+      </c>
+      <c r="B94" t="s">
+        <v>285</v>
+      </c>
+      <c r="C94" t="s">
+        <v>792</v>
+      </c>
+      <c r="D94" t="s">
+        <v>808</v>
+      </c>
+      <c r="E94" t="s">
+        <v>825</v>
+      </c>
+      <c r="F94" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>727</v>
+      </c>
+      <c r="B95" t="s">
+        <v>789</v>
+      </c>
+      <c r="C95" t="s">
+        <v>793</v>
+      </c>
+      <c r="D95" t="s">
+        <v>808</v>
+      </c>
+      <c r="E95" t="s">
+        <v>825</v>
+      </c>
+      <c r="F95" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>729</v>
+      </c>
+      <c r="B96" t="s">
+        <v>285</v>
+      </c>
+      <c r="C96" t="s">
+        <v>792</v>
+      </c>
+      <c r="D96" t="s">
+        <v>809</v>
+      </c>
+      <c r="E96" t="s">
+        <v>825</v>
+      </c>
+      <c r="F96" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>731</v>
+      </c>
+      <c r="B97" t="s">
+        <v>789</v>
+      </c>
+      <c r="C97" t="s">
+        <v>793</v>
+      </c>
+      <c r="D97" t="s">
+        <v>809</v>
+      </c>
+      <c r="E97" t="s">
+        <v>825</v>
+      </c>
+      <c r="F97" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>733</v>
+      </c>
+      <c r="B98" t="s">
+        <v>285</v>
+      </c>
+      <c r="C98" t="s">
+        <v>792</v>
+      </c>
+      <c r="D98" t="s">
+        <v>810</v>
+      </c>
+      <c r="E98" t="s">
+        <v>825</v>
+      </c>
+      <c r="F98" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>735</v>
+      </c>
+      <c r="B99" t="s">
+        <v>789</v>
+      </c>
+      <c r="C99" t="s">
+        <v>793</v>
+      </c>
+      <c r="D99" t="s">
+        <v>810</v>
+      </c>
+      <c r="E99" t="s">
+        <v>825</v>
+      </c>
+      <c r="F99" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>737</v>
+      </c>
+      <c r="B100" t="s">
+        <v>285</v>
+      </c>
+      <c r="C100" t="s">
+        <v>792</v>
+      </c>
+      <c r="D100" t="s">
+        <v>811</v>
+      </c>
+      <c r="E100" t="s">
+        <v>825</v>
+      </c>
+      <c r="F100" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>739</v>
+      </c>
+      <c r="B101" t="s">
+        <v>789</v>
+      </c>
+      <c r="C101" t="s">
+        <v>793</v>
+      </c>
+      <c r="D101" t="s">
+        <v>811</v>
+      </c>
+      <c r="E101" t="s">
+        <v>825</v>
+      </c>
+      <c r="F101" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>741</v>
+      </c>
+      <c r="B102" t="s">
+        <v>285</v>
+      </c>
+      <c r="C102" t="s">
+        <v>792</v>
+      </c>
+      <c r="D102" t="s">
+        <v>812</v>
+      </c>
+      <c r="E102" t="s">
+        <v>825</v>
+      </c>
+      <c r="F102" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>743</v>
+      </c>
+      <c r="B103" t="s">
+        <v>789</v>
+      </c>
+      <c r="C103" t="s">
+        <v>793</v>
+      </c>
+      <c r="D103" t="s">
+        <v>812</v>
+      </c>
+      <c r="E103" t="s">
+        <v>825</v>
+      </c>
+      <c r="F103" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>745</v>
+      </c>
+      <c r="B104" t="s">
+        <v>285</v>
+      </c>
+      <c r="C104" t="s">
+        <v>792</v>
+      </c>
+      <c r="D104" t="s">
+        <v>813</v>
+      </c>
+      <c r="E104" t="s">
+        <v>825</v>
+      </c>
+      <c r="F104" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" t="s">
+        <v>747</v>
+      </c>
+      <c r="B105" t="s">
+        <v>789</v>
+      </c>
+      <c r="C105" t="s">
+        <v>793</v>
+      </c>
+      <c r="D105" t="s">
+        <v>813</v>
+      </c>
+      <c r="E105" t="s">
+        <v>825</v>
+      </c>
+      <c r="F105" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" t="s">
+        <v>749</v>
+      </c>
+      <c r="B106" t="s">
+        <v>285</v>
+      </c>
+      <c r="C106" t="s">
+        <v>792</v>
+      </c>
+      <c r="D106" t="s">
+        <v>814</v>
+      </c>
+      <c r="E106" t="s">
+        <v>825</v>
+      </c>
+      <c r="F106" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
+        <v>751</v>
+      </c>
+      <c r="B107" t="s">
+        <v>789</v>
+      </c>
+      <c r="C107" t="s">
+        <v>793</v>
+      </c>
+      <c r="D107" t="s">
+        <v>814</v>
+      </c>
+      <c r="E107" t="s">
+        <v>825</v>
+      </c>
+      <c r="F107" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>753</v>
+      </c>
+      <c r="B108" t="s">
+        <v>285</v>
+      </c>
+      <c r="C108" t="s">
+        <v>792</v>
+      </c>
+      <c r="D108" t="s">
+        <v>815</v>
+      </c>
+      <c r="E108" t="s">
+        <v>825</v>
+      </c>
+      <c r="F108" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
+        <v>755</v>
+      </c>
+      <c r="B109" t="s">
+        <v>789</v>
+      </c>
+      <c r="C109" t="s">
+        <v>793</v>
+      </c>
+      <c r="D109" t="s">
+        <v>815</v>
+      </c>
+      <c r="E109" t="s">
+        <v>825</v>
+      </c>
+      <c r="F109" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>757</v>
+      </c>
+      <c r="B110" t="s">
+        <v>285</v>
+      </c>
+      <c r="C110" t="s">
+        <v>792</v>
+      </c>
+      <c r="D110" t="s">
+        <v>816</v>
+      </c>
+      <c r="E110" t="s">
+        <v>825</v>
+      </c>
+      <c r="F110" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>759</v>
+      </c>
+      <c r="B111" t="s">
+        <v>789</v>
+      </c>
+      <c r="C111" t="s">
+        <v>793</v>
+      </c>
+      <c r="D111" t="s">
+        <v>816</v>
+      </c>
+      <c r="E111" t="s">
+        <v>825</v>
+      </c>
+      <c r="F111" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>761</v>
+      </c>
+      <c r="B112" t="s">
+        <v>285</v>
+      </c>
+      <c r="C112" t="s">
+        <v>792</v>
+      </c>
+      <c r="D112" t="s">
+        <v>817</v>
+      </c>
+      <c r="E112" t="s">
+        <v>825</v>
+      </c>
+      <c r="F112" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>763</v>
+      </c>
+      <c r="B113" t="s">
+        <v>789</v>
+      </c>
+      <c r="C113" t="s">
+        <v>793</v>
+      </c>
+      <c r="D113" t="s">
+        <v>817</v>
+      </c>
+      <c r="E113" t="s">
+        <v>825</v>
+      </c>
+      <c r="F113" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>765</v>
+      </c>
+      <c r="B114" t="s">
+        <v>285</v>
+      </c>
+      <c r="C114" t="s">
+        <v>792</v>
+      </c>
+      <c r="D114" t="s">
+        <v>818</v>
+      </c>
+      <c r="E114" t="s">
+        <v>825</v>
+      </c>
+      <c r="F114" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>767</v>
+      </c>
+      <c r="B115" t="s">
+        <v>789</v>
+      </c>
+      <c r="C115" t="s">
+        <v>793</v>
+      </c>
+      <c r="D115" t="s">
+        <v>818</v>
+      </c>
+      <c r="E115" t="s">
+        <v>825</v>
+      </c>
+      <c r="F115" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
+        <v>769</v>
+      </c>
+      <c r="B116" t="s">
+        <v>285</v>
+      </c>
+      <c r="C116" t="s">
+        <v>792</v>
+      </c>
+      <c r="D116" t="s">
+        <v>819</v>
+      </c>
+      <c r="E116" t="s">
+        <v>825</v>
+      </c>
+      <c r="F116" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" t="s">
+        <v>771</v>
+      </c>
+      <c r="B117" t="s">
+        <v>789</v>
+      </c>
+      <c r="C117" t="s">
+        <v>793</v>
+      </c>
+      <c r="D117" t="s">
+        <v>819</v>
+      </c>
+      <c r="E117" t="s">
+        <v>825</v>
+      </c>
+      <c r="F117" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" t="s">
+        <v>773</v>
+      </c>
+      <c r="B118" t="s">
+        <v>285</v>
+      </c>
+      <c r="C118" t="s">
+        <v>792</v>
+      </c>
+      <c r="D118" t="s">
+        <v>820</v>
+      </c>
+      <c r="E118" t="s">
+        <v>825</v>
+      </c>
+      <c r="F118" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
+        <v>775</v>
+      </c>
+      <c r="B119" t="s">
+        <v>789</v>
+      </c>
+      <c r="C119" t="s">
+        <v>793</v>
+      </c>
+      <c r="D119" t="s">
+        <v>820</v>
+      </c>
+      <c r="E119" t="s">
+        <v>825</v>
+      </c>
+      <c r="F119" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" t="s">
+        <v>777</v>
+      </c>
+      <c r="B120" t="s">
+        <v>285</v>
+      </c>
+      <c r="C120" t="s">
+        <v>792</v>
+      </c>
+      <c r="D120" t="s">
+        <v>821</v>
+      </c>
+      <c r="E120" t="s">
+        <v>825</v>
+      </c>
+      <c r="F120" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" t="s">
+        <v>779</v>
+      </c>
+      <c r="B121" t="s">
+        <v>789</v>
+      </c>
+      <c r="C121" t="s">
+        <v>793</v>
+      </c>
+      <c r="D121" t="s">
+        <v>821</v>
+      </c>
+      <c r="E121" t="s">
+        <v>825</v>
+      </c>
+      <c r="F121" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>781</v>
+      </c>
+      <c r="B122" t="s">
+        <v>285</v>
+      </c>
+      <c r="C122" t="s">
+        <v>792</v>
+      </c>
+      <c r="D122" t="s">
+        <v>822</v>
+      </c>
+      <c r="E122" t="s">
+        <v>825</v>
+      </c>
+      <c r="F122" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>783</v>
+      </c>
+      <c r="B123" t="s">
+        <v>789</v>
+      </c>
+      <c r="C123" t="s">
+        <v>793</v>
+      </c>
+      <c r="D123" t="s">
+        <v>822</v>
+      </c>
+      <c r="E123" t="s">
+        <v>825</v>
+      </c>
+      <c r="F123" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
+        <v>785</v>
+      </c>
+      <c r="B124" t="s">
+        <v>285</v>
+      </c>
+      <c r="C124" t="s">
+        <v>792</v>
+      </c>
+      <c r="D124" t="s">
+        <v>823</v>
+      </c>
+      <c r="E124" t="s">
+        <v>825</v>
+      </c>
+      <c r="F124" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
+        <v>787</v>
+      </c>
+      <c r="B125" t="s">
+        <v>789</v>
+      </c>
+      <c r="C125" t="s">
+        <v>793</v>
+      </c>
+      <c r="D125" t="s">
+        <v>823</v>
+      </c>
+      <c r="E125" t="s">
+        <v>825</v>
+      </c>
+      <c r="F125" t="s">
+        <v>855</v>
       </c>
     </row>
   </sheetData>
